--- a/TÜM SÜRELER TABLOSU.xlsx
+++ b/TÜM SÜRELER TABLOSU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LISANS_BIRIMI\00_Lisans Süreç Takip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE6EFD-8E2C-46A2-A821-91247C04774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833C3FA-BBFF-43BC-B458-258F42DD18E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESKİ!$A$1:$A$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GÜNCEL!$A$1:$A$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GÜNCEL!$A$71:$E$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GÜNCEL!$A$1:$A$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GÜNCEL!$A$71:$E$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="255">
   <si>
     <t>PROJE ADI</t>
   </si>
@@ -799,6 +799,24 @@
   </si>
   <si>
     <t>30 TAKVİM GÜNÜ</t>
+  </si>
+  <si>
+    <t>R25-BALIKESİR-2 RES</t>
+  </si>
+  <si>
+    <t>BAKANLIK İŞ PROGRAMI</t>
+  </si>
+  <si>
+    <t>+5 gün ile birlikte tebliğ tarihi 27.01.2026 olarak dikkate alırsak 30 gün sonrası 26.02.2026, 60 gün sonrası 30.03.2026.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAPINAR RES </t>
+  </si>
+  <si>
+    <t>ÖNLİSANS İPTALİ</t>
+  </si>
+  <si>
+    <t>30.01.2026 da itiraz edildi.</t>
   </si>
 </sst>
 </file>
@@ -1451,28 +1469,26 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1764,10 +1780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DR178"/>
+  <dimension ref="A1:DR187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3691,60 +3707,62 @@
       <c r="E129" s="72"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="142" t="s">
+      <c r="A130" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="143" t="s">
+      <c r="B130" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="C130" s="143" t="s">
+      <c r="C130" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="D130" s="144">
+      <c r="D130" s="139">
         <v>46038</v>
       </c>
       <c r="E130" s="72"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="60" t="s">
+      <c r="A131" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D131" s="66">
+      <c r="D131" s="67">
+        <v>46048</v>
+      </c>
+      <c r="E131" s="72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132" s="138"/>
+      <c r="D132" s="139">
+        <v>45680</v>
+      </c>
+      <c r="E132" s="133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="142" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" s="143"/>
+      <c r="C133" s="143"/>
+      <c r="D133" s="144">
         <v>46045</v>
       </c>
-      <c r="E131" s="72"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="C132" s="134"/>
-      <c r="D132" s="135">
-        <v>45680</v>
-      </c>
-      <c r="E132" s="136" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="138" t="s">
-        <v>238</v>
-      </c>
-      <c r="B133" s="139"/>
-      <c r="C133" s="139"/>
-      <c r="D133" s="140">
-        <v>46045</v>
-      </c>
-      <c r="E133" s="141" t="s">
+      <c r="E133" s="136" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3764,1205 +3782,1576 @@
       <c r="E134" s="72"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="61" t="s">
+      <c r="A135" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="66">
+      <c r="D135" s="67">
         <v>46052</v>
       </c>
       <c r="E135" s="72"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="61" t="s">
+      <c r="A136" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="66">
+      <c r="D136" s="67">
         <v>46054</v>
       </c>
       <c r="E136" s="72"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="60" t="s">
+      <c r="A137" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D137" s="67">
+        <v>46062</v>
+      </c>
+      <c r="E137" s="72"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="66">
+        <v>46062</v>
+      </c>
+      <c r="E138" s="72"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="66">
+        <v>46065</v>
+      </c>
+      <c r="E139" s="72"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B140" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C140" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D137" s="66">
+      <c r="D140" s="67">
         <v>46065</v>
       </c>
-      <c r="E137" s="72"/>
-    </row>
-    <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="112" t="s">
+      <c r="E140" s="72"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D141" s="66">
+        <v>46069</v>
+      </c>
+      <c r="E141" s="72"/>
+    </row>
+    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="117" t="s">
+      <c r="B142" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="C138" s="117" t="s">
+      <c r="C142" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="D138" s="118">
+      <c r="D142" s="118">
         <v>46070</v>
       </c>
-      <c r="E138" s="116" t="s">
+      <c r="E142" s="116" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="112" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B139" s="113" t="s">
+      <c r="B143" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="113" t="s">
+      <c r="C143" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D139" s="114">
+      <c r="D143" s="114">
         <v>46084</v>
       </c>
-      <c r="E139" s="115" t="s">
+      <c r="E143" s="115" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="60" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D140" s="66">
+      <c r="D144" s="66">
         <v>46092</v>
       </c>
-      <c r="E140" s="72"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="61" t="s">
+      <c r="E144" s="72"/>
+    </row>
+    <row r="145" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A145" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B145" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C145" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D141" s="66">
+      <c r="D145" s="67">
         <v>46093</v>
       </c>
-      <c r="E141" s="72"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="60" t="s">
+      <c r="E145" s="72"/>
+    </row>
+    <row r="146" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A146" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D142" s="66">
+      <c r="D146" s="66">
         <v>46094</v>
       </c>
-      <c r="E142" s="72"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="66">
-        <v>46109</v>
-      </c>
-      <c r="E143" s="72"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="69">
-        <v>46113</v>
-      </c>
-      <c r="E144" s="72"/>
-    </row>
-    <row r="145" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A145" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D145" s="69">
-        <v>46118</v>
-      </c>
-      <c r="E145" s="72"/>
-    </row>
-    <row r="146" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A146" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="69">
-        <v>46165</v>
-      </c>
       <c r="E146" s="72"/>
     </row>
     <row r="147" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A147" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B147" s="1"/>
+      <c r="A147" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="69">
-        <v>46167</v>
-      </c>
-      <c r="E147" s="72"/>
+        <v>219</v>
+      </c>
+      <c r="D147" s="66">
+        <v>46104</v>
+      </c>
+      <c r="E147" s="141" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="148" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A148" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D148" s="69">
-        <v>46167</v>
+      <c r="D148" s="66">
+        <v>46109</v>
       </c>
       <c r="E148" s="72"/>
     </row>
     <row r="149" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A149" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="69">
+        <v>46113</v>
+      </c>
+      <c r="E149" s="72"/>
+    </row>
+    <row r="150" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A150" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D150" s="69">
+        <v>46118</v>
+      </c>
+      <c r="E150" s="72"/>
+    </row>
+    <row r="151" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A151" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="69">
+        <v>46165</v>
+      </c>
+      <c r="E151" s="72"/>
+    </row>
+    <row r="152" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A152" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="69">
+        <v>46167</v>
+      </c>
+      <c r="E152" s="72"/>
+    </row>
+    <row r="153" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A153" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="69">
+        <v>46167</v>
+      </c>
+      <c r="E153" s="72"/>
+    </row>
+    <row r="154" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A154" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D149" s="69">
+      <c r="D154" s="69">
         <v>46184</v>
       </c>
-      <c r="E149" s="72"/>
-    </row>
-    <row r="150" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A150" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D150" s="69">
-        <v>46184</v>
-      </c>
-      <c r="E150" s="72"/>
-    </row>
-    <row r="151" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B151" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="119">
-        <v>46194</v>
-      </c>
-      <c r="E151" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-      <c r="V151"/>
-      <c r="W151"/>
-      <c r="X151"/>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-      <c r="AB151"/>
-      <c r="AC151"/>
-      <c r="AD151"/>
-      <c r="AE151"/>
-      <c r="AF151"/>
-      <c r="AG151"/>
-      <c r="AH151"/>
-      <c r="AI151"/>
-      <c r="AJ151"/>
-      <c r="AK151"/>
-      <c r="AL151"/>
-      <c r="AM151"/>
-      <c r="AN151"/>
-      <c r="AO151"/>
-      <c r="AP151"/>
-      <c r="AQ151"/>
-      <c r="AR151"/>
-      <c r="AS151"/>
-      <c r="AT151"/>
-      <c r="AU151"/>
-      <c r="AV151"/>
-      <c r="AW151"/>
-      <c r="AX151"/>
-      <c r="AY151"/>
-      <c r="AZ151"/>
-      <c r="BA151"/>
-      <c r="BB151"/>
-      <c r="BC151"/>
-      <c r="BD151"/>
-      <c r="BE151"/>
-      <c r="BF151"/>
-      <c r="BG151"/>
-      <c r="BH151"/>
-      <c r="BI151"/>
-      <c r="BJ151"/>
-      <c r="BK151"/>
-      <c r="BL151"/>
-      <c r="BM151"/>
-      <c r="BN151"/>
-      <c r="BO151"/>
-      <c r="BP151"/>
-      <c r="BQ151"/>
-      <c r="BR151"/>
-      <c r="BS151"/>
-      <c r="BT151"/>
-      <c r="BU151"/>
-      <c r="BV151"/>
-      <c r="BW151"/>
-      <c r="BX151"/>
-      <c r="BY151"/>
-      <c r="BZ151"/>
-      <c r="CA151"/>
-      <c r="CB151"/>
-      <c r="CC151"/>
-      <c r="CD151"/>
-      <c r="CE151"/>
-      <c r="CF151"/>
-      <c r="CG151"/>
-      <c r="CH151"/>
-      <c r="CI151"/>
-      <c r="CJ151"/>
-      <c r="CK151"/>
-      <c r="CL151"/>
-      <c r="CM151"/>
-      <c r="CN151"/>
-      <c r="CO151"/>
-      <c r="CP151"/>
-      <c r="CQ151"/>
-      <c r="CR151"/>
-      <c r="CS151"/>
-      <c r="CT151"/>
-      <c r="CU151"/>
-      <c r="CV151"/>
-      <c r="CW151"/>
-      <c r="CX151"/>
-      <c r="CY151"/>
-      <c r="CZ151"/>
-      <c r="DA151"/>
-      <c r="DB151"/>
-      <c r="DC151"/>
-      <c r="DD151"/>
-      <c r="DE151"/>
-      <c r="DF151"/>
-      <c r="DG151"/>
-      <c r="DH151"/>
-      <c r="DI151"/>
-      <c r="DJ151"/>
-      <c r="DK151"/>
-      <c r="DL151"/>
-      <c r="DM151"/>
-      <c r="DN151"/>
-      <c r="DO151"/>
-      <c r="DP151"/>
-      <c r="DQ151"/>
-      <c r="DR151"/>
-    </row>
-    <row r="152" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="B152" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="C152" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="D152" s="119">
-        <v>46205</v>
-      </c>
-      <c r="E152" s="115"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="U152"/>
-      <c r="V152"/>
-      <c r="W152"/>
-      <c r="X152"/>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AB152"/>
-      <c r="AC152"/>
-      <c r="AD152"/>
-      <c r="AE152"/>
-      <c r="AF152"/>
-      <c r="AG152"/>
-      <c r="AH152"/>
-      <c r="AI152"/>
-      <c r="AJ152"/>
-      <c r="AK152"/>
-      <c r="AL152"/>
-      <c r="AM152"/>
-      <c r="AN152"/>
-      <c r="AO152"/>
-      <c r="AP152"/>
-      <c r="AQ152"/>
-      <c r="AR152"/>
-      <c r="AS152"/>
-      <c r="AT152"/>
-      <c r="AU152"/>
-      <c r="AV152"/>
-      <c r="AW152"/>
-      <c r="AX152"/>
-      <c r="AY152"/>
-      <c r="AZ152"/>
-      <c r="BA152"/>
-      <c r="BB152"/>
-      <c r="BC152"/>
-      <c r="BD152"/>
-      <c r="BE152"/>
-      <c r="BF152"/>
-      <c r="BG152"/>
-      <c r="BH152"/>
-      <c r="BI152"/>
-      <c r="BJ152"/>
-      <c r="BK152"/>
-      <c r="BL152"/>
-      <c r="BM152"/>
-      <c r="BN152"/>
-      <c r="BO152"/>
-      <c r="BP152"/>
-      <c r="BQ152"/>
-      <c r="BR152"/>
-      <c r="BS152"/>
-      <c r="BT152"/>
-      <c r="BU152"/>
-      <c r="BV152"/>
-      <c r="BW152"/>
-      <c r="BX152"/>
-      <c r="BY152"/>
-      <c r="BZ152"/>
-      <c r="CA152"/>
-      <c r="CB152"/>
-      <c r="CC152"/>
-      <c r="CD152"/>
-      <c r="CE152"/>
-      <c r="CF152"/>
-      <c r="CG152"/>
-      <c r="CH152"/>
-      <c r="CI152"/>
-      <c r="CJ152"/>
-      <c r="CK152"/>
-      <c r="CL152"/>
-      <c r="CM152"/>
-      <c r="CN152"/>
-      <c r="CO152"/>
-      <c r="CP152"/>
-      <c r="CQ152"/>
-      <c r="CR152"/>
-      <c r="CS152"/>
-      <c r="CT152"/>
-      <c r="CU152"/>
-      <c r="CV152"/>
-      <c r="CW152"/>
-      <c r="CX152"/>
-      <c r="CY152"/>
-      <c r="CZ152"/>
-      <c r="DA152"/>
-      <c r="DB152"/>
-      <c r="DC152"/>
-      <c r="DD152"/>
-      <c r="DE152"/>
-      <c r="DF152"/>
-      <c r="DG152"/>
-      <c r="DH152"/>
-      <c r="DI152"/>
-      <c r="DJ152"/>
-      <c r="DK152"/>
-      <c r="DL152"/>
-      <c r="DM152"/>
-      <c r="DN152"/>
-      <c r="DO152"/>
-      <c r="DP152"/>
-      <c r="DQ152"/>
-      <c r="DR152"/>
-    </row>
-    <row r="153" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="112" t="s">
-        <v>244</v>
-      </c>
-      <c r="B153" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="C153" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="D153" s="119">
-        <v>46205</v>
-      </c>
-      <c r="E153" s="115"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153"/>
-      <c r="U153"/>
-      <c r="V153"/>
-      <c r="W153"/>
-      <c r="X153"/>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AB153"/>
-      <c r="AC153"/>
-      <c r="AD153"/>
-      <c r="AE153"/>
-      <c r="AF153"/>
-      <c r="AG153"/>
-      <c r="AH153"/>
-      <c r="AI153"/>
-      <c r="AJ153"/>
-      <c r="AK153"/>
-      <c r="AL153"/>
-      <c r="AM153"/>
-      <c r="AN153"/>
-      <c r="AO153"/>
-      <c r="AP153"/>
-      <c r="AQ153"/>
-      <c r="AR153"/>
-      <c r="AS153"/>
-      <c r="AT153"/>
-      <c r="AU153"/>
-      <c r="AV153"/>
-      <c r="AW153"/>
-      <c r="AX153"/>
-      <c r="AY153"/>
-      <c r="AZ153"/>
-      <c r="BA153"/>
-      <c r="BB153"/>
-      <c r="BC153"/>
-      <c r="BD153"/>
-      <c r="BE153"/>
-      <c r="BF153"/>
-      <c r="BG153"/>
-      <c r="BH153"/>
-      <c r="BI153"/>
-      <c r="BJ153"/>
-      <c r="BK153"/>
-      <c r="BL153"/>
-      <c r="BM153"/>
-      <c r="BN153"/>
-      <c r="BO153"/>
-      <c r="BP153"/>
-      <c r="BQ153"/>
-      <c r="BR153"/>
-      <c r="BS153"/>
-      <c r="BT153"/>
-      <c r="BU153"/>
-      <c r="BV153"/>
-      <c r="BW153"/>
-      <c r="BX153"/>
-      <c r="BY153"/>
-      <c r="BZ153"/>
-      <c r="CA153"/>
-      <c r="CB153"/>
-      <c r="CC153"/>
-      <c r="CD153"/>
-      <c r="CE153"/>
-      <c r="CF153"/>
-      <c r="CG153"/>
-      <c r="CH153"/>
-      <c r="CI153"/>
-      <c r="CJ153"/>
-      <c r="CK153"/>
-      <c r="CL153"/>
-      <c r="CM153"/>
-      <c r="CN153"/>
-      <c r="CO153"/>
-      <c r="CP153"/>
-      <c r="CQ153"/>
-      <c r="CR153"/>
-      <c r="CS153"/>
-      <c r="CT153"/>
-      <c r="CU153"/>
-      <c r="CV153"/>
-      <c r="CW153"/>
-      <c r="CX153"/>
-      <c r="CY153"/>
-      <c r="CZ153"/>
-      <c r="DA153"/>
-      <c r="DB153"/>
-      <c r="DC153"/>
-      <c r="DD153"/>
-      <c r="DE153"/>
-      <c r="DF153"/>
-      <c r="DG153"/>
-      <c r="DH153"/>
-      <c r="DI153"/>
-      <c r="DJ153"/>
-      <c r="DK153"/>
-      <c r="DL153"/>
-      <c r="DM153"/>
-      <c r="DN153"/>
-      <c r="DO153"/>
-      <c r="DP153"/>
-      <c r="DQ153"/>
-      <c r="DR153"/>
-    </row>
-    <row r="154" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C154" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="70">
-        <v>46220</v>
-      </c>
-      <c r="E154" s="75"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
-      <c r="T154"/>
-      <c r="U154"/>
-      <c r="V154"/>
-      <c r="W154"/>
-      <c r="X154"/>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AB154"/>
-      <c r="AC154"/>
-      <c r="AD154"/>
-      <c r="AE154"/>
-      <c r="AF154"/>
-      <c r="AG154"/>
-      <c r="AH154"/>
-      <c r="AI154"/>
-      <c r="AJ154"/>
-      <c r="AK154"/>
-      <c r="AL154"/>
-      <c r="AM154"/>
-      <c r="AN154"/>
-      <c r="AO154"/>
-      <c r="AP154"/>
-      <c r="AQ154"/>
-      <c r="AR154"/>
-      <c r="AS154"/>
-      <c r="AT154"/>
-      <c r="AU154"/>
-      <c r="AV154"/>
-      <c r="AW154"/>
-      <c r="AX154"/>
-      <c r="AY154"/>
-      <c r="AZ154"/>
-      <c r="BA154"/>
-      <c r="BB154"/>
-      <c r="BC154"/>
-      <c r="BD154"/>
-      <c r="BE154"/>
-      <c r="BF154"/>
-      <c r="BG154"/>
-      <c r="BH154"/>
-      <c r="BI154"/>
-      <c r="BJ154"/>
-      <c r="BK154"/>
-      <c r="BL154"/>
-      <c r="BM154"/>
-      <c r="BN154"/>
-      <c r="BO154"/>
-      <c r="BP154"/>
-      <c r="BQ154"/>
-      <c r="BR154"/>
-      <c r="BS154"/>
-      <c r="BT154"/>
-      <c r="BU154"/>
-      <c r="BV154"/>
-      <c r="BW154"/>
-      <c r="BX154"/>
-      <c r="BY154"/>
-      <c r="BZ154"/>
-      <c r="CA154"/>
-      <c r="CB154"/>
-      <c r="CC154"/>
-      <c r="CD154"/>
-      <c r="CE154"/>
-      <c r="CF154"/>
-      <c r="CG154"/>
-      <c r="CH154"/>
-      <c r="CI154"/>
-      <c r="CJ154"/>
-      <c r="CK154"/>
-      <c r="CL154"/>
-      <c r="CM154"/>
-      <c r="CN154"/>
-      <c r="CO154"/>
-      <c r="CP154"/>
-      <c r="CQ154"/>
-      <c r="CR154"/>
-      <c r="CS154"/>
-      <c r="CT154"/>
-      <c r="CU154"/>
-      <c r="CV154"/>
-      <c r="CW154"/>
-      <c r="CX154"/>
-      <c r="CY154"/>
-      <c r="CZ154"/>
-      <c r="DA154"/>
-      <c r="DB154"/>
-      <c r="DC154"/>
-      <c r="DD154"/>
-      <c r="DE154"/>
-      <c r="DF154"/>
-      <c r="DG154"/>
-      <c r="DH154"/>
-      <c r="DI154"/>
-      <c r="DJ154"/>
-      <c r="DK154"/>
-      <c r="DL154"/>
-      <c r="DM154"/>
-      <c r="DN154"/>
-      <c r="DO154"/>
-      <c r="DP154"/>
-      <c r="DQ154"/>
-      <c r="DR154"/>
+      <c r="E154" s="72"/>
     </row>
     <row r="155" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A155" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155" s="69">
+        <v>46184</v>
+      </c>
+      <c r="E155" s="72"/>
+    </row>
+    <row r="156" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="119">
+        <v>46194</v>
+      </c>
+      <c r="E156" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+      <c r="AC156"/>
+      <c r="AD156"/>
+      <c r="AE156"/>
+      <c r="AF156"/>
+      <c r="AG156"/>
+      <c r="AH156"/>
+      <c r="AI156"/>
+      <c r="AJ156"/>
+      <c r="AK156"/>
+      <c r="AL156"/>
+      <c r="AM156"/>
+      <c r="AN156"/>
+      <c r="AO156"/>
+      <c r="AP156"/>
+      <c r="AQ156"/>
+      <c r="AR156"/>
+      <c r="AS156"/>
+      <c r="AT156"/>
+      <c r="AU156"/>
+      <c r="AV156"/>
+      <c r="AW156"/>
+      <c r="AX156"/>
+      <c r="AY156"/>
+      <c r="AZ156"/>
+      <c r="BA156"/>
+      <c r="BB156"/>
+      <c r="BC156"/>
+      <c r="BD156"/>
+      <c r="BE156"/>
+      <c r="BF156"/>
+      <c r="BG156"/>
+      <c r="BH156"/>
+      <c r="BI156"/>
+      <c r="BJ156"/>
+      <c r="BK156"/>
+      <c r="BL156"/>
+      <c r="BM156"/>
+      <c r="BN156"/>
+      <c r="BO156"/>
+      <c r="BP156"/>
+      <c r="BQ156"/>
+      <c r="BR156"/>
+      <c r="BS156"/>
+      <c r="BT156"/>
+      <c r="BU156"/>
+      <c r="BV156"/>
+      <c r="BW156"/>
+      <c r="BX156"/>
+      <c r="BY156"/>
+      <c r="BZ156"/>
+      <c r="CA156"/>
+      <c r="CB156"/>
+      <c r="CC156"/>
+      <c r="CD156"/>
+      <c r="CE156"/>
+      <c r="CF156"/>
+      <c r="CG156"/>
+      <c r="CH156"/>
+      <c r="CI156"/>
+      <c r="CJ156"/>
+      <c r="CK156"/>
+      <c r="CL156"/>
+      <c r="CM156"/>
+      <c r="CN156"/>
+      <c r="CO156"/>
+      <c r="CP156"/>
+      <c r="CQ156"/>
+      <c r="CR156"/>
+      <c r="CS156"/>
+      <c r="CT156"/>
+      <c r="CU156"/>
+      <c r="CV156"/>
+      <c r="CW156"/>
+      <c r="CX156"/>
+      <c r="CY156"/>
+      <c r="CZ156"/>
+      <c r="DA156"/>
+      <c r="DB156"/>
+      <c r="DC156"/>
+      <c r="DD156"/>
+      <c r="DE156"/>
+      <c r="DF156"/>
+      <c r="DG156"/>
+      <c r="DH156"/>
+      <c r="DI156"/>
+      <c r="DJ156"/>
+      <c r="DK156"/>
+      <c r="DL156"/>
+      <c r="DM156"/>
+      <c r="DN156"/>
+      <c r="DO156"/>
+      <c r="DP156"/>
+      <c r="DQ156"/>
+      <c r="DR156"/>
+    </row>
+    <row r="157" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="119">
+        <v>46203</v>
+      </c>
+      <c r="E157" s="115"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+      <c r="AF157"/>
+      <c r="AG157"/>
+      <c r="AH157"/>
+      <c r="AI157"/>
+      <c r="AJ157"/>
+      <c r="AK157"/>
+      <c r="AL157"/>
+      <c r="AM157"/>
+      <c r="AN157"/>
+      <c r="AO157"/>
+      <c r="AP157"/>
+      <c r="AQ157"/>
+      <c r="AR157"/>
+      <c r="AS157"/>
+      <c r="AT157"/>
+      <c r="AU157"/>
+      <c r="AV157"/>
+      <c r="AW157"/>
+      <c r="AX157"/>
+      <c r="AY157"/>
+      <c r="AZ157"/>
+      <c r="BA157"/>
+      <c r="BB157"/>
+      <c r="BC157"/>
+      <c r="BD157"/>
+      <c r="BE157"/>
+      <c r="BF157"/>
+      <c r="BG157"/>
+      <c r="BH157"/>
+      <c r="BI157"/>
+      <c r="BJ157"/>
+      <c r="BK157"/>
+      <c r="BL157"/>
+      <c r="BM157"/>
+      <c r="BN157"/>
+      <c r="BO157"/>
+      <c r="BP157"/>
+      <c r="BQ157"/>
+      <c r="BR157"/>
+      <c r="BS157"/>
+      <c r="BT157"/>
+      <c r="BU157"/>
+      <c r="BV157"/>
+      <c r="BW157"/>
+      <c r="BX157"/>
+      <c r="BY157"/>
+      <c r="BZ157"/>
+      <c r="CA157"/>
+      <c r="CB157"/>
+      <c r="CC157"/>
+      <c r="CD157"/>
+      <c r="CE157"/>
+      <c r="CF157"/>
+      <c r="CG157"/>
+      <c r="CH157"/>
+      <c r="CI157"/>
+      <c r="CJ157"/>
+      <c r="CK157"/>
+      <c r="CL157"/>
+      <c r="CM157"/>
+      <c r="CN157"/>
+      <c r="CO157"/>
+      <c r="CP157"/>
+      <c r="CQ157"/>
+      <c r="CR157"/>
+      <c r="CS157"/>
+      <c r="CT157"/>
+      <c r="CU157"/>
+      <c r="CV157"/>
+      <c r="CW157"/>
+      <c r="CX157"/>
+      <c r="CY157"/>
+      <c r="CZ157"/>
+      <c r="DA157"/>
+      <c r="DB157"/>
+      <c r="DC157"/>
+      <c r="DD157"/>
+      <c r="DE157"/>
+      <c r="DF157"/>
+      <c r="DG157"/>
+      <c r="DH157"/>
+      <c r="DI157"/>
+      <c r="DJ157"/>
+      <c r="DK157"/>
+      <c r="DL157"/>
+      <c r="DM157"/>
+      <c r="DN157"/>
+      <c r="DO157"/>
+      <c r="DP157"/>
+      <c r="DQ157"/>
+      <c r="DR157"/>
+    </row>
+    <row r="158" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" s="119">
+        <v>46205</v>
+      </c>
+      <c r="E158" s="115"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
+      <c r="AB158"/>
+      <c r="AC158"/>
+      <c r="AD158"/>
+      <c r="AE158"/>
+      <c r="AF158"/>
+      <c r="AG158"/>
+      <c r="AH158"/>
+      <c r="AI158"/>
+      <c r="AJ158"/>
+      <c r="AK158"/>
+      <c r="AL158"/>
+      <c r="AM158"/>
+      <c r="AN158"/>
+      <c r="AO158"/>
+      <c r="AP158"/>
+      <c r="AQ158"/>
+      <c r="AR158"/>
+      <c r="AS158"/>
+      <c r="AT158"/>
+      <c r="AU158"/>
+      <c r="AV158"/>
+      <c r="AW158"/>
+      <c r="AX158"/>
+      <c r="AY158"/>
+      <c r="AZ158"/>
+      <c r="BA158"/>
+      <c r="BB158"/>
+      <c r="BC158"/>
+      <c r="BD158"/>
+      <c r="BE158"/>
+      <c r="BF158"/>
+      <c r="BG158"/>
+      <c r="BH158"/>
+      <c r="BI158"/>
+      <c r="BJ158"/>
+      <c r="BK158"/>
+      <c r="BL158"/>
+      <c r="BM158"/>
+      <c r="BN158"/>
+      <c r="BO158"/>
+      <c r="BP158"/>
+      <c r="BQ158"/>
+      <c r="BR158"/>
+      <c r="BS158"/>
+      <c r="BT158"/>
+      <c r="BU158"/>
+      <c r="BV158"/>
+      <c r="BW158"/>
+      <c r="BX158"/>
+      <c r="BY158"/>
+      <c r="BZ158"/>
+      <c r="CA158"/>
+      <c r="CB158"/>
+      <c r="CC158"/>
+      <c r="CD158"/>
+      <c r="CE158"/>
+      <c r="CF158"/>
+      <c r="CG158"/>
+      <c r="CH158"/>
+      <c r="CI158"/>
+      <c r="CJ158"/>
+      <c r="CK158"/>
+      <c r="CL158"/>
+      <c r="CM158"/>
+      <c r="CN158"/>
+      <c r="CO158"/>
+      <c r="CP158"/>
+      <c r="CQ158"/>
+      <c r="CR158"/>
+      <c r="CS158"/>
+      <c r="CT158"/>
+      <c r="CU158"/>
+      <c r="CV158"/>
+      <c r="CW158"/>
+      <c r="CX158"/>
+      <c r="CY158"/>
+      <c r="CZ158"/>
+      <c r="DA158"/>
+      <c r="DB158"/>
+      <c r="DC158"/>
+      <c r="DD158"/>
+      <c r="DE158"/>
+      <c r="DF158"/>
+      <c r="DG158"/>
+      <c r="DH158"/>
+      <c r="DI158"/>
+      <c r="DJ158"/>
+      <c r="DK158"/>
+      <c r="DL158"/>
+      <c r="DM158"/>
+      <c r="DN158"/>
+      <c r="DO158"/>
+      <c r="DP158"/>
+      <c r="DQ158"/>
+      <c r="DR158"/>
+    </row>
+    <row r="159" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" s="119">
+        <v>46205</v>
+      </c>
+      <c r="E159" s="115"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+      <c r="Y159"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+      <c r="AC159"/>
+      <c r="AD159"/>
+      <c r="AE159"/>
+      <c r="AF159"/>
+      <c r="AG159"/>
+      <c r="AH159"/>
+      <c r="AI159"/>
+      <c r="AJ159"/>
+      <c r="AK159"/>
+      <c r="AL159"/>
+      <c r="AM159"/>
+      <c r="AN159"/>
+      <c r="AO159"/>
+      <c r="AP159"/>
+      <c r="AQ159"/>
+      <c r="AR159"/>
+      <c r="AS159"/>
+      <c r="AT159"/>
+      <c r="AU159"/>
+      <c r="AV159"/>
+      <c r="AW159"/>
+      <c r="AX159"/>
+      <c r="AY159"/>
+      <c r="AZ159"/>
+      <c r="BA159"/>
+      <c r="BB159"/>
+      <c r="BC159"/>
+      <c r="BD159"/>
+      <c r="BE159"/>
+      <c r="BF159"/>
+      <c r="BG159"/>
+      <c r="BH159"/>
+      <c r="BI159"/>
+      <c r="BJ159"/>
+      <c r="BK159"/>
+      <c r="BL159"/>
+      <c r="BM159"/>
+      <c r="BN159"/>
+      <c r="BO159"/>
+      <c r="BP159"/>
+      <c r="BQ159"/>
+      <c r="BR159"/>
+      <c r="BS159"/>
+      <c r="BT159"/>
+      <c r="BU159"/>
+      <c r="BV159"/>
+      <c r="BW159"/>
+      <c r="BX159"/>
+      <c r="BY159"/>
+      <c r="BZ159"/>
+      <c r="CA159"/>
+      <c r="CB159"/>
+      <c r="CC159"/>
+      <c r="CD159"/>
+      <c r="CE159"/>
+      <c r="CF159"/>
+      <c r="CG159"/>
+      <c r="CH159"/>
+      <c r="CI159"/>
+      <c r="CJ159"/>
+      <c r="CK159"/>
+      <c r="CL159"/>
+      <c r="CM159"/>
+      <c r="CN159"/>
+      <c r="CO159"/>
+      <c r="CP159"/>
+      <c r="CQ159"/>
+      <c r="CR159"/>
+      <c r="CS159"/>
+      <c r="CT159"/>
+      <c r="CU159"/>
+      <c r="CV159"/>
+      <c r="CW159"/>
+      <c r="CX159"/>
+      <c r="CY159"/>
+      <c r="CZ159"/>
+      <c r="DA159"/>
+      <c r="DB159"/>
+      <c r="DC159"/>
+      <c r="DD159"/>
+      <c r="DE159"/>
+      <c r="DF159"/>
+      <c r="DG159"/>
+      <c r="DH159"/>
+      <c r="DI159"/>
+      <c r="DJ159"/>
+      <c r="DK159"/>
+      <c r="DL159"/>
+      <c r="DM159"/>
+      <c r="DN159"/>
+      <c r="DO159"/>
+      <c r="DP159"/>
+      <c r="DQ159"/>
+      <c r="DR159"/>
+    </row>
+    <row r="160" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="119">
+        <v>46211</v>
+      </c>
+      <c r="E160" s="115"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+      <c r="Y160"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+      <c r="AC160"/>
+      <c r="AD160"/>
+      <c r="AE160"/>
+      <c r="AF160"/>
+      <c r="AG160"/>
+      <c r="AH160"/>
+      <c r="AI160"/>
+      <c r="AJ160"/>
+      <c r="AK160"/>
+      <c r="AL160"/>
+      <c r="AM160"/>
+      <c r="AN160"/>
+      <c r="AO160"/>
+      <c r="AP160"/>
+      <c r="AQ160"/>
+      <c r="AR160"/>
+      <c r="AS160"/>
+      <c r="AT160"/>
+      <c r="AU160"/>
+      <c r="AV160"/>
+      <c r="AW160"/>
+      <c r="AX160"/>
+      <c r="AY160"/>
+      <c r="AZ160"/>
+      <c r="BA160"/>
+      <c r="BB160"/>
+      <c r="BC160"/>
+      <c r="BD160"/>
+      <c r="BE160"/>
+      <c r="BF160"/>
+      <c r="BG160"/>
+      <c r="BH160"/>
+      <c r="BI160"/>
+      <c r="BJ160"/>
+      <c r="BK160"/>
+      <c r="BL160"/>
+      <c r="BM160"/>
+      <c r="BN160"/>
+      <c r="BO160"/>
+      <c r="BP160"/>
+      <c r="BQ160"/>
+      <c r="BR160"/>
+      <c r="BS160"/>
+      <c r="BT160"/>
+      <c r="BU160"/>
+      <c r="BV160"/>
+      <c r="BW160"/>
+      <c r="BX160"/>
+      <c r="BY160"/>
+      <c r="BZ160"/>
+      <c r="CA160"/>
+      <c r="CB160"/>
+      <c r="CC160"/>
+      <c r="CD160"/>
+      <c r="CE160"/>
+      <c r="CF160"/>
+      <c r="CG160"/>
+      <c r="CH160"/>
+      <c r="CI160"/>
+      <c r="CJ160"/>
+      <c r="CK160"/>
+      <c r="CL160"/>
+      <c r="CM160"/>
+      <c r="CN160"/>
+      <c r="CO160"/>
+      <c r="CP160"/>
+      <c r="CQ160"/>
+      <c r="CR160"/>
+      <c r="CS160"/>
+      <c r="CT160"/>
+      <c r="CU160"/>
+      <c r="CV160"/>
+      <c r="CW160"/>
+      <c r="CX160"/>
+      <c r="CY160"/>
+      <c r="CZ160"/>
+      <c r="DA160"/>
+      <c r="DB160"/>
+      <c r="DC160"/>
+      <c r="DD160"/>
+      <c r="DE160"/>
+      <c r="DF160"/>
+      <c r="DG160"/>
+      <c r="DH160"/>
+      <c r="DI160"/>
+      <c r="DJ160"/>
+      <c r="DK160"/>
+      <c r="DL160"/>
+      <c r="DM160"/>
+      <c r="DN160"/>
+      <c r="DO160"/>
+      <c r="DP160"/>
+      <c r="DQ160"/>
+      <c r="DR160"/>
+    </row>
+    <row r="161" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="70">
+        <v>46220</v>
+      </c>
+      <c r="E161" s="75"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+      <c r="Y161"/>
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+      <c r="AC161"/>
+      <c r="AD161"/>
+      <c r="AE161"/>
+      <c r="AF161"/>
+      <c r="AG161"/>
+      <c r="AH161"/>
+      <c r="AI161"/>
+      <c r="AJ161"/>
+      <c r="AK161"/>
+      <c r="AL161"/>
+      <c r="AM161"/>
+      <c r="AN161"/>
+      <c r="AO161"/>
+      <c r="AP161"/>
+      <c r="AQ161"/>
+      <c r="AR161"/>
+      <c r="AS161"/>
+      <c r="AT161"/>
+      <c r="AU161"/>
+      <c r="AV161"/>
+      <c r="AW161"/>
+      <c r="AX161"/>
+      <c r="AY161"/>
+      <c r="AZ161"/>
+      <c r="BA161"/>
+      <c r="BB161"/>
+      <c r="BC161"/>
+      <c r="BD161"/>
+      <c r="BE161"/>
+      <c r="BF161"/>
+      <c r="BG161"/>
+      <c r="BH161"/>
+      <c r="BI161"/>
+      <c r="BJ161"/>
+      <c r="BK161"/>
+      <c r="BL161"/>
+      <c r="BM161"/>
+      <c r="BN161"/>
+      <c r="BO161"/>
+      <c r="BP161"/>
+      <c r="BQ161"/>
+      <c r="BR161"/>
+      <c r="BS161"/>
+      <c r="BT161"/>
+      <c r="BU161"/>
+      <c r="BV161"/>
+      <c r="BW161"/>
+      <c r="BX161"/>
+      <c r="BY161"/>
+      <c r="BZ161"/>
+      <c r="CA161"/>
+      <c r="CB161"/>
+      <c r="CC161"/>
+      <c r="CD161"/>
+      <c r="CE161"/>
+      <c r="CF161"/>
+      <c r="CG161"/>
+      <c r="CH161"/>
+      <c r="CI161"/>
+      <c r="CJ161"/>
+      <c r="CK161"/>
+      <c r="CL161"/>
+      <c r="CM161"/>
+      <c r="CN161"/>
+      <c r="CO161"/>
+      <c r="CP161"/>
+      <c r="CQ161"/>
+      <c r="CR161"/>
+      <c r="CS161"/>
+      <c r="CT161"/>
+      <c r="CU161"/>
+      <c r="CV161"/>
+      <c r="CW161"/>
+      <c r="CX161"/>
+      <c r="CY161"/>
+      <c r="CZ161"/>
+      <c r="DA161"/>
+      <c r="DB161"/>
+      <c r="DC161"/>
+      <c r="DD161"/>
+      <c r="DE161"/>
+      <c r="DF161"/>
+      <c r="DG161"/>
+      <c r="DH161"/>
+      <c r="DI161"/>
+      <c r="DJ161"/>
+      <c r="DK161"/>
+      <c r="DL161"/>
+      <c r="DM161"/>
+      <c r="DN161"/>
+      <c r="DO161"/>
+      <c r="DP161"/>
+      <c r="DQ161"/>
+      <c r="DR161"/>
+    </row>
+    <row r="162" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A162" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="69">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="69">
         <v>46230</v>
       </c>
-      <c r="E155" s="72"/>
-    </row>
-    <row r="156" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A156" s="60" t="s">
+      <c r="E162" s="72"/>
+    </row>
+    <row r="163" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A163" s="60" t="s">
         <v>26</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="69">
-        <v>46245</v>
-      </c>
-      <c r="E156" s="72"/>
-    </row>
-    <row r="157" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A157" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="69">
-        <v>46260</v>
-      </c>
-      <c r="E157" s="72"/>
-    </row>
-    <row r="158" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A158" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D158" s="69">
-        <v>46282</v>
-      </c>
-      <c r="E158" s="72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="159" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A159" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" s="69">
-        <v>46307</v>
-      </c>
-      <c r="E159" s="72"/>
-    </row>
-    <row r="160" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A160" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="69">
-        <v>46313</v>
-      </c>
-      <c r="E160" s="72"/>
-    </row>
-    <row r="161" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A161" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="69">
-        <v>46319</v>
-      </c>
-      <c r="E161" s="72"/>
-    </row>
-    <row r="162" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A162" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D162" s="69">
-        <v>46320</v>
-      </c>
-      <c r="E162" s="72"/>
-    </row>
-    <row r="163" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A163" s="61" t="s">
-        <v>107</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="69">
-        <v>46328</v>
+        <v>46245</v>
       </c>
       <c r="E163" s="72"/>
     </row>
     <row r="164" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A164" s="61" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D164" s="69">
-        <v>46329</v>
+        <v>46260</v>
       </c>
       <c r="E164" s="72"/>
     </row>
     <row r="165" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A165" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="A165" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165" s="140">
+        <v>46282</v>
+      </c>
+      <c r="E165" s="72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A166" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="69">
+        <v>46307</v>
+      </c>
+      <c r="E166" s="72"/>
+    </row>
+    <row r="167" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A167" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="69">
+        <v>46313</v>
+      </c>
+      <c r="E167" s="72"/>
+    </row>
+    <row r="168" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A168" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D165" s="69">
-        <v>46358</v>
-      </c>
-      <c r="E165" s="72"/>
-    </row>
-    <row r="166" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A166" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E166" s="72"/>
-    </row>
-    <row r="167" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A167" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E167" s="72"/>
-    </row>
-    <row r="168" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A168" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D168" s="69">
-        <v>46387</v>
+        <v>46319</v>
       </c>
       <c r="E168" s="72"/>
     </row>
     <row r="169" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D169" s="69">
-        <v>46387</v>
+        <v>46320</v>
       </c>
       <c r="E169" s="72"/>
     </row>
     <row r="170" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A170" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A170" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="69">
-        <v>46387</v>
+        <v>46328</v>
       </c>
       <c r="E170" s="72"/>
     </row>
-    <row r="171" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="60" t="s">
-        <v>3</v>
+    <row r="171" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A171" s="61" t="s">
+        <v>194</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D171" s="69">
-        <v>46387</v>
+        <v>46329</v>
       </c>
       <c r="E171" s="72"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
-      <c r="K171"/>
-      <c r="L171"/>
-      <c r="M171"/>
-      <c r="N171"/>
-      <c r="O171"/>
-      <c r="P171"/>
-      <c r="Q171"/>
-      <c r="R171"/>
-      <c r="S171"/>
-      <c r="T171"/>
-      <c r="U171"/>
-      <c r="V171"/>
-      <c r="W171"/>
-      <c r="X171"/>
-      <c r="Y171"/>
-      <c r="Z171"/>
-      <c r="AA171"/>
-      <c r="AB171"/>
-      <c r="AC171"/>
-      <c r="AD171"/>
-      <c r="AE171"/>
-      <c r="AF171"/>
-      <c r="AG171"/>
-      <c r="AH171"/>
-      <c r="AI171"/>
-      <c r="AJ171"/>
-      <c r="AK171"/>
-      <c r="AL171"/>
-      <c r="AM171"/>
-      <c r="AN171"/>
-      <c r="AO171"/>
-      <c r="AP171"/>
-      <c r="AQ171"/>
-      <c r="AR171"/>
-      <c r="AS171"/>
-      <c r="AT171"/>
-      <c r="AU171"/>
-      <c r="AV171"/>
-      <c r="AW171"/>
-      <c r="AX171"/>
-      <c r="AY171"/>
-      <c r="AZ171"/>
-      <c r="BA171"/>
-      <c r="BB171"/>
-      <c r="BC171"/>
-      <c r="BD171"/>
-      <c r="BE171"/>
-      <c r="BF171"/>
-      <c r="BG171"/>
-      <c r="BH171"/>
-      <c r="BI171"/>
-      <c r="BJ171"/>
-      <c r="BK171"/>
-      <c r="BL171"/>
-      <c r="BM171"/>
-      <c r="BN171"/>
-      <c r="BO171"/>
-      <c r="BP171"/>
-      <c r="BQ171"/>
-      <c r="BR171"/>
-      <c r="BS171"/>
-      <c r="BT171"/>
-      <c r="BU171"/>
-      <c r="BV171"/>
-      <c r="BW171"/>
-      <c r="BX171"/>
-      <c r="BY171"/>
-      <c r="BZ171"/>
-      <c r="CA171"/>
-      <c r="CB171"/>
-      <c r="CC171"/>
-      <c r="CD171"/>
-      <c r="CE171"/>
-      <c r="CF171"/>
-      <c r="CG171"/>
-      <c r="CH171"/>
-      <c r="CI171"/>
-      <c r="CJ171"/>
-      <c r="CK171"/>
-      <c r="CL171"/>
-      <c r="CM171"/>
-      <c r="CN171"/>
-      <c r="CO171"/>
-      <c r="CP171"/>
-      <c r="CQ171"/>
-      <c r="CR171"/>
-      <c r="CS171"/>
-      <c r="CT171"/>
-      <c r="CU171"/>
-      <c r="CV171"/>
-      <c r="CW171"/>
-      <c r="CX171"/>
-      <c r="CY171"/>
-      <c r="CZ171"/>
-      <c r="DA171"/>
-      <c r="DB171"/>
-      <c r="DC171"/>
-      <c r="DD171"/>
-      <c r="DE171"/>
-      <c r="DF171"/>
-      <c r="DG171"/>
-      <c r="DH171"/>
-      <c r="DI171"/>
-      <c r="DJ171"/>
-      <c r="DK171"/>
-      <c r="DL171"/>
-      <c r="DM171"/>
-      <c r="DN171"/>
-      <c r="DO171"/>
-      <c r="DP171"/>
-      <c r="DQ171"/>
-      <c r="DR171"/>
     </row>
     <row r="172" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A172" s="61" t="s">
-        <v>17</v>
+      <c r="A172" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="69">
-        <v>46389</v>
+        <v>46358</v>
       </c>
       <c r="E172" s="72"/>
     </row>
     <row r="173" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A173" s="60" t="s">
-        <v>192</v>
+      <c r="A173" s="61" t="s">
+        <v>252</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D173" s="69">
-        <v>46487</v>
+        <v>46387</v>
       </c>
       <c r="E173" s="72"/>
     </row>
     <row r="174" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A174" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E174" s="72"/>
+    </row>
+    <row r="175" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A175" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E175" s="72"/>
+    </row>
+    <row r="176" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A176" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E176" s="72"/>
+    </row>
+    <row r="177" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A177" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E177" s="72"/>
+    </row>
+    <row r="178" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A178" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E178" s="72"/>
+    </row>
+    <row r="179" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E179" s="72"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+      <c r="W179"/>
+      <c r="X179"/>
+      <c r="Y179"/>
+      <c r="Z179"/>
+      <c r="AA179"/>
+      <c r="AB179"/>
+      <c r="AC179"/>
+      <c r="AD179"/>
+      <c r="AE179"/>
+      <c r="AF179"/>
+      <c r="AG179"/>
+      <c r="AH179"/>
+      <c r="AI179"/>
+      <c r="AJ179"/>
+      <c r="AK179"/>
+      <c r="AL179"/>
+      <c r="AM179"/>
+      <c r="AN179"/>
+      <c r="AO179"/>
+      <c r="AP179"/>
+      <c r="AQ179"/>
+      <c r="AR179"/>
+      <c r="AS179"/>
+      <c r="AT179"/>
+      <c r="AU179"/>
+      <c r="AV179"/>
+      <c r="AW179"/>
+      <c r="AX179"/>
+      <c r="AY179"/>
+      <c r="AZ179"/>
+      <c r="BA179"/>
+      <c r="BB179"/>
+      <c r="BC179"/>
+      <c r="BD179"/>
+      <c r="BE179"/>
+      <c r="BF179"/>
+      <c r="BG179"/>
+      <c r="BH179"/>
+      <c r="BI179"/>
+      <c r="BJ179"/>
+      <c r="BK179"/>
+      <c r="BL179"/>
+      <c r="BM179"/>
+      <c r="BN179"/>
+      <c r="BO179"/>
+      <c r="BP179"/>
+      <c r="BQ179"/>
+      <c r="BR179"/>
+      <c r="BS179"/>
+      <c r="BT179"/>
+      <c r="BU179"/>
+      <c r="BV179"/>
+      <c r="BW179"/>
+      <c r="BX179"/>
+      <c r="BY179"/>
+      <c r="BZ179"/>
+      <c r="CA179"/>
+      <c r="CB179"/>
+      <c r="CC179"/>
+      <c r="CD179"/>
+      <c r="CE179"/>
+      <c r="CF179"/>
+      <c r="CG179"/>
+      <c r="CH179"/>
+      <c r="CI179"/>
+      <c r="CJ179"/>
+      <c r="CK179"/>
+      <c r="CL179"/>
+      <c r="CM179"/>
+      <c r="CN179"/>
+      <c r="CO179"/>
+      <c r="CP179"/>
+      <c r="CQ179"/>
+      <c r="CR179"/>
+      <c r="CS179"/>
+      <c r="CT179"/>
+      <c r="CU179"/>
+      <c r="CV179"/>
+      <c r="CW179"/>
+      <c r="CX179"/>
+      <c r="CY179"/>
+      <c r="CZ179"/>
+      <c r="DA179"/>
+      <c r="DB179"/>
+      <c r="DC179"/>
+      <c r="DD179"/>
+      <c r="DE179"/>
+      <c r="DF179"/>
+      <c r="DG179"/>
+      <c r="DH179"/>
+      <c r="DI179"/>
+      <c r="DJ179"/>
+      <c r="DK179"/>
+      <c r="DL179"/>
+      <c r="DM179"/>
+      <c r="DN179"/>
+      <c r="DO179"/>
+      <c r="DP179"/>
+      <c r="DQ179"/>
+      <c r="DR179"/>
+    </row>
+    <row r="180" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A180" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="69">
+        <v>46389</v>
+      </c>
+      <c r="E180" s="72"/>
+    </row>
+    <row r="181" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A181" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="69">
+        <v>46477</v>
+      </c>
+      <c r="E181" s="72"/>
+    </row>
+    <row r="182" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A182" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="69">
+        <v>46487</v>
+      </c>
+      <c r="E182" s="72"/>
+    </row>
+    <row r="183" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A183" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="69">
+      <c r="D183" s="69">
         <v>47029</v>
       </c>
-      <c r="E174" s="72"/>
-    </row>
-    <row r="175" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A175" s="60"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="72"/>
-    </row>
-    <row r="176" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A176" s="60"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="69"/>
-      <c r="E176" s="72"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="61"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="72"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="60"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="69"/>
-      <c r="E178" s="72"/>
+      <c r="E183" s="72"/>
+    </row>
+    <row r="184" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A184" s="60"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="69"/>
+      <c r="E184" s="72"/>
+    </row>
+    <row r="185" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A185" s="60"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="69"/>
+      <c r="E185" s="72"/>
+    </row>
+    <row r="186" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A186" s="61"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="69"/>
+      <c r="E186" s="72"/>
+    </row>
+    <row r="187" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="A187" s="60"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="69"/>
+      <c r="E187" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4995,13 +5384,13 @@
     <hyperlink ref="A86" r:id="rId27" xr:uid="{EF9E5405-0057-4913-BB66-8DADEA3ADAC1}"/>
     <hyperlink ref="A87" r:id="rId28" xr:uid="{77AD3351-401A-45BD-B406-81289E91E2B7}"/>
     <hyperlink ref="A93" r:id="rId29" xr:uid="{7488D608-8004-4897-996F-BC8BACB78819}"/>
-    <hyperlink ref="A151" r:id="rId30" xr:uid="{216B7BB1-9833-42F6-8BD6-FCD583005659}"/>
-    <hyperlink ref="A154" r:id="rId31" xr:uid="{FA25EFB8-9CF4-4906-BA52-DDB4946ED57F}"/>
-    <hyperlink ref="A171" r:id="rId32" xr:uid="{6DC17469-2AE4-486A-B2FB-692C612C938F}"/>
+    <hyperlink ref="A156" r:id="rId30" xr:uid="{216B7BB1-9833-42F6-8BD6-FCD583005659}"/>
+    <hyperlink ref="A161" r:id="rId31" xr:uid="{FA25EFB8-9CF4-4906-BA52-DDB4946ED57F}"/>
+    <hyperlink ref="A179" r:id="rId32" xr:uid="{6DC17469-2AE4-486A-B2FB-692C612C938F}"/>
     <hyperlink ref="A19" r:id="rId33" xr:uid="{0D893380-8851-499C-B099-36DE61DF32F5}"/>
     <hyperlink ref="A21" r:id="rId34" xr:uid="{87B26A19-7710-44FB-B821-04076D6AFBF0}"/>
     <hyperlink ref="A35" r:id="rId35" xr:uid="{E391FA3E-2D35-4729-830F-6D61CBEC0188}"/>
-    <hyperlink ref="A162" r:id="rId36" xr:uid="{2CACF691-BB8F-4886-AC93-9CE1A774C547}"/>
+    <hyperlink ref="A169" r:id="rId36" xr:uid="{2CACF691-BB8F-4886-AC93-9CE1A774C547}"/>
     <hyperlink ref="A13" r:id="rId37" xr:uid="{C4EC3C20-6E17-4496-AE8C-0CEF0E9A227E}"/>
     <hyperlink ref="A18" r:id="rId38" xr:uid="{DE7A9130-E078-4D30-B625-191B5DB108EB}"/>
     <hyperlink ref="A15" r:id="rId39" xr:uid="{BE9D8063-99E0-4594-B7AE-033FE54B7D57}"/>
@@ -5010,7 +5399,7 @@
     <hyperlink ref="A49" r:id="rId42" xr:uid="{AA26D797-BF58-4D70-80DD-349BD90AC78D}"/>
     <hyperlink ref="A47" r:id="rId43" display="http://10.0.10.4/link/A4CAE6F5-E38B-46FC-8A73-E356A04AAB61/show?object=2BAC4AEF-5562-4507-9D44-9918AC72C412&amp;objid=0-34910" xr:uid="{E1078946-D888-434A-9235-9A9ADAE1F358}"/>
     <hyperlink ref="A31" r:id="rId44" xr:uid="{13658346-E407-4C32-B12D-1EE442E6D4C1}"/>
-    <hyperlink ref="A165" r:id="rId45" xr:uid="{F8667B27-785F-4C86-8CBE-F02D36031873}"/>
+    <hyperlink ref="A172" r:id="rId45" xr:uid="{F8667B27-785F-4C86-8CBE-F02D36031873}"/>
     <hyperlink ref="A38" r:id="rId46" xr:uid="{3384F468-C50F-4198-92F5-4021B95195D6}"/>
     <hyperlink ref="A30" r:id="rId47" xr:uid="{F5DBA126-4925-4CE7-BF0A-F16F60CFE40E}"/>
     <hyperlink ref="A41" r:id="rId48" xr:uid="{4270CE8F-9570-4350-950E-4CDF1AF1DAE7}"/>
@@ -5020,7 +5409,7 @@
     <hyperlink ref="A112" r:id="rId52" xr:uid="{F9CF7289-D6A0-4780-87E7-3B78286AB288}"/>
     <hyperlink ref="A128" r:id="rId53" display="http://10.0.10.4/link/A4CAE6F5-E38B-46FC-8A73-E356A04AAB61/show?object=2BAC4AEF-5562-4507-9D44-9918AC72C412&amp;objid=0-34910" xr:uid="{9CFE415C-C17B-490C-8037-2532E86DE931}"/>
     <hyperlink ref="A55" r:id="rId54" xr:uid="{F9D9DEAA-53C8-468C-8630-D40E5EFE2D71}"/>
-    <hyperlink ref="A138" r:id="rId55" xr:uid="{78BB742D-73FF-403F-AD77-3A21BEA8FABD}"/>
+    <hyperlink ref="A142" r:id="rId55" xr:uid="{78BB742D-73FF-403F-AD77-3A21BEA8FABD}"/>
     <hyperlink ref="A115" r:id="rId56" xr:uid="{D4C47D54-2008-4878-8D6C-0A5103A83E1C}"/>
     <hyperlink ref="A36" r:id="rId57" xr:uid="{5C9626EA-E4A5-4D0E-B953-6B4B82F709E2}"/>
     <hyperlink ref="A37" r:id="rId58" xr:uid="{96654049-8A20-4712-8E12-BB280F6D48FA}"/>
@@ -5031,7 +5420,7 @@
     <hyperlink ref="A69" r:id="rId63" xr:uid="{36B5D324-9B53-4B8D-903E-0AFF9FF40F68}"/>
     <hyperlink ref="A54" r:id="rId64" xr:uid="{B0D7BE6C-2A85-487A-8233-DA7B4990ADD3}"/>
     <hyperlink ref="A64" r:id="rId65" xr:uid="{DC598FAA-2E8D-49B9-8196-77EFABE48390}"/>
-    <hyperlink ref="A173" r:id="rId66" xr:uid="{2A55D894-3782-4A93-BFF5-8BB45EF3BC96}"/>
+    <hyperlink ref="A182" r:id="rId66" xr:uid="{2A55D894-3782-4A93-BFF5-8BB45EF3BC96}"/>
     <hyperlink ref="A124" r:id="rId67" xr:uid="{703A2AC6-9444-4E57-ABFB-EE6ED7C9D085}"/>
     <hyperlink ref="A60" r:id="rId68" xr:uid="{542D71B6-F1E7-4AE6-B1FA-65A7E15CE5C1}"/>
     <hyperlink ref="A78" r:id="rId69" xr:uid="{F4B4F6EC-E5D9-4E63-B04A-BEB38A3599C0}"/>
@@ -5046,27 +5435,34 @@
     <hyperlink ref="A73" r:id="rId78" xr:uid="{53E5BB95-7747-494E-8B3F-CE8985BCCD8C}"/>
     <hyperlink ref="A77" r:id="rId79" xr:uid="{BD73F50C-8C2C-4097-AC56-2AC6085BA386}"/>
     <hyperlink ref="A81" r:id="rId80" xr:uid="{D8195D1C-89BE-48B0-ACCE-AC0D6F84221D}"/>
-    <hyperlink ref="A156" r:id="rId81" xr:uid="{3FADFDCB-7E5E-4791-B644-7806EF4F9053}"/>
+    <hyperlink ref="A163" r:id="rId81" xr:uid="{3FADFDCB-7E5E-4791-B644-7806EF4F9053}"/>
     <hyperlink ref="A95" r:id="rId82" xr:uid="{763050C7-E204-49E6-8F57-0D2A8A2AFEC5}"/>
     <hyperlink ref="A99" r:id="rId83" xr:uid="{A872B1D5-9CB2-4BF6-B70C-E785B0081A1C}"/>
     <hyperlink ref="A100" r:id="rId84" xr:uid="{13305418-280C-4A0F-8F52-F89EB87E7464}"/>
-    <hyperlink ref="A145" r:id="rId85" xr:uid="{02545752-74FC-4347-ABE9-9F3945601C86}"/>
+    <hyperlink ref="A150" r:id="rId85" xr:uid="{02545752-74FC-4347-ABE9-9F3945601C86}"/>
     <hyperlink ref="A127" r:id="rId86" xr:uid="{2BAC6AD7-0236-4814-99E0-82B25FD9E481}"/>
     <hyperlink ref="A122" r:id="rId87" xr:uid="{CF52E32D-755C-49FF-80CB-BB902CF11B42}"/>
-    <hyperlink ref="A161" r:id="rId88" xr:uid="{2A771FF4-F864-4AE6-9A3E-0D5C86951B7A}"/>
-    <hyperlink ref="A174" r:id="rId89" xr:uid="{2B519212-7208-4B3F-8C3B-6CB1677D1E24}"/>
+    <hyperlink ref="A168" r:id="rId88" xr:uid="{2A771FF4-F864-4AE6-9A3E-0D5C86951B7A}"/>
+    <hyperlink ref="A183" r:id="rId89" xr:uid="{2B519212-7208-4B3F-8C3B-6CB1677D1E24}"/>
     <hyperlink ref="A121" r:id="rId90" xr:uid="{86BB471B-F7BD-4FC7-B274-E6257B5430F7}"/>
     <hyperlink ref="A97" r:id="rId91" xr:uid="{7A586C77-7A05-4E91-83B8-6B5C0FD22752}"/>
-    <hyperlink ref="A170" r:id="rId92" xr:uid="{5B632E0F-4D33-40DC-8C56-9D8A3A64DDF4}"/>
-    <hyperlink ref="A167" r:id="rId93" xr:uid="{F9707FAA-2528-441B-A8E3-90694B09A0F9}"/>
-    <hyperlink ref="A169" r:id="rId94" xr:uid="{79837541-2DC6-4F63-AA38-276A6FC31426}"/>
-    <hyperlink ref="A153" r:id="rId95" xr:uid="{4B736B0C-7002-4E53-9963-F457726B67A4}"/>
-    <hyperlink ref="A152" r:id="rId96" xr:uid="{9FAC6E36-AE7B-4D72-9D2A-E6B4BAC03F19}"/>
+    <hyperlink ref="A178" r:id="rId92" xr:uid="{5B632E0F-4D33-40DC-8C56-9D8A3A64DDF4}"/>
+    <hyperlink ref="A175" r:id="rId93" xr:uid="{F9707FAA-2528-441B-A8E3-90694B09A0F9}"/>
+    <hyperlink ref="A177" r:id="rId94" xr:uid="{79837541-2DC6-4F63-AA38-276A6FC31426}"/>
+    <hyperlink ref="A159" r:id="rId95" xr:uid="{4B736B0C-7002-4E53-9963-F457726B67A4}"/>
+    <hyperlink ref="A158" r:id="rId96" xr:uid="{9FAC6E36-AE7B-4D72-9D2A-E6B4BAC03F19}"/>
     <hyperlink ref="A131" r:id="rId97" xr:uid="{4E3A922C-5FA1-437C-A138-E27A0AB81A85}"/>
-    <hyperlink ref="A137" r:id="rId98" xr:uid="{24D5EE0D-E898-40D1-BACB-35BC01593C2A}"/>
+    <hyperlink ref="A140" r:id="rId98" xr:uid="{24D5EE0D-E898-40D1-BACB-35BC01593C2A}"/>
+    <hyperlink ref="A147" r:id="rId99" xr:uid="{5D4C087D-6199-48E3-B933-FA81772E4EA0}"/>
+    <hyperlink ref="A181" r:id="rId100" xr:uid="{74C92563-22E4-4585-82BB-A4ACBA191AF2}"/>
+    <hyperlink ref="A157" r:id="rId101" xr:uid="{142C2334-40BB-4EED-8EFB-849EC5A71EBA}"/>
+    <hyperlink ref="A160" r:id="rId102" xr:uid="{3D499344-5F60-42EA-B73C-EA71BC7797E3}"/>
+    <hyperlink ref="A138" r:id="rId103" xr:uid="{4A942445-8164-4D10-AD50-A2BFCB3725D6}"/>
+    <hyperlink ref="A137" r:id="rId104" xr:uid="{9E3E3393-2CDD-49D9-B3C7-01CBDDF04149}"/>
+    <hyperlink ref="A139" r:id="rId105" xr:uid="{F53F5054-6B7D-4981-B0E6-406539CB1C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId99"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId106"/>
 </worksheet>
 </file>
 

--- a/TÜM SÜRELER TABLOSU.xlsx
+++ b/TÜM SÜRELER TABLOSU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LISANS_BIRIMI\00_Lisans Süreç Takip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833C3FA-BBFF-43BC-B458-258F42DD18E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDDF2CC-7596-4AB7-AD72-64E9C1F7FBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GÜNCEL" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESKİ!$A$1:$A$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GÜNCEL!$A$1:$A$183</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GÜNCEL!$A$71:$E$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GÜNCEL!$A$1:$A$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GÜNCEL!$A$71:$E$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="260">
   <si>
     <t>PROJE ADI</t>
   </si>
@@ -817,6 +817,21 @@
   </si>
   <si>
     <t>30.01.2026 da itiraz edildi.</t>
+  </si>
+  <si>
+    <t>G25-ESKİŞEHİR-1 GES</t>
+  </si>
+  <si>
+    <t>G25-ESKİŞEHİR-2 GES</t>
+  </si>
+  <si>
+    <t>ÖNLİSANS BAŞVURUSU</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>YARDIMCI KAYNAK GES</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1433,12 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,7 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,7 +1501,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1780,24 +1788,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DR187"/>
+  <dimension ref="A1:DR206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>127</v>
       </c>
@@ -1846,7 +1854,7 @@
       </c>
       <c r="E3" s="72"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>127</v>
       </c>
@@ -1861,7 +1869,7 @@
       </c>
       <c r="E4" s="72"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1884,7 @@
       </c>
       <c r="E5" s="72"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1899,7 @@
       </c>
       <c r="E6" s="72"/>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>26</v>
       </c>
@@ -1906,7 +1914,7 @@
       </c>
       <c r="E7" s="72"/>
     </row>
-    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1929,7 @@
       </c>
       <c r="E8" s="72"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>107</v>
       </c>
@@ -1936,7 +1944,7 @@
       </c>
       <c r="E9" s="72"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>108</v>
       </c>
@@ -1951,7 +1959,7 @@
       </c>
       <c r="E10" s="72"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>109</v>
       </c>
@@ -1966,7 +1974,7 @@
       </c>
       <c r="E11" s="72"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +1987,7 @@
       </c>
       <c r="E12" s="72"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>33</v>
       </c>
@@ -1992,7 +2000,7 @@
       </c>
       <c r="E13" s="72"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
         <v>152</v>
       </c>
@@ -2005,7 +2013,7 @@
       </c>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>41</v>
       </c>
@@ -2018,7 +2026,7 @@
       </c>
       <c r="E15" s="72"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>39</v>
       </c>
@@ -2033,7 +2041,7 @@
       </c>
       <c r="E16" s="72"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2056,7 @@
       </c>
       <c r="E17" s="72"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>30</v>
       </c>
@@ -2061,7 +2069,7 @@
       </c>
       <c r="E18" s="72"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2084,7 @@
       </c>
       <c r="E19" s="72"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>108</v>
       </c>
@@ -2091,7 +2099,7 @@
       </c>
       <c r="E20" s="72"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>147</v>
       </c>
@@ -2106,7 +2114,7 @@
       </c>
       <c r="E21" s="72"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2129,7 @@
       </c>
       <c r="E22" s="72"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2142,7 @@
       </c>
       <c r="E23" s="73"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>56</v>
       </c>
@@ -2149,7 +2157,7 @@
       </c>
       <c r="E24" s="73"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>55</v>
       </c>
@@ -2164,7 +2172,7 @@
       </c>
       <c r="E25" s="73"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>30</v>
       </c>
@@ -2179,7 +2187,7 @@
       </c>
       <c r="E26" s="73"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
         <v>108</v>
       </c>
@@ -2194,7 +2202,7 @@
       </c>
       <c r="E27" s="73"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>38</v>
       </c>
@@ -2209,7 +2217,7 @@
       </c>
       <c r="E28" s="73"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>168</v>
       </c>
@@ -2224,7 +2232,7 @@
       </c>
       <c r="E29" s="73"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2247,7 @@
       </c>
       <c r="E30" s="73"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2262,7 @@
       </c>
       <c r="E31" s="73"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>7</v>
       </c>
@@ -2267,7 +2275,7 @@
       </c>
       <c r="E32" s="73"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>183</v>
       </c>
@@ -2280,7 +2288,7 @@
       </c>
       <c r="E33" s="73"/>
     </row>
-    <row r="34" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>38</v>
       </c>
@@ -2295,7 +2303,7 @@
       </c>
       <c r="E34" s="87"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>147</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2335,7 @@
       </c>
       <c r="E36" s="73"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>29</v>
       </c>
@@ -2342,7 +2350,7 @@
       </c>
       <c r="E37" s="73"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>33</v>
       </c>
@@ -2357,7 +2365,7 @@
       </c>
       <c r="E38" s="73"/>
     </row>
-    <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2380,7 @@
       </c>
       <c r="E39" s="72"/>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>59</v>
       </c>
@@ -2404,7 +2412,7 @@
       </c>
       <c r="E41" s="81"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2427,7 @@
       </c>
       <c r="E42" s="81"/>
     </row>
-    <row r="43" spans="1:5" s="55" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>58</v>
       </c>
@@ -2434,7 +2442,7 @@
       </c>
       <c r="E43" s="81"/>
     </row>
-    <row r="44" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2457,7 @@
       </c>
       <c r="E44" s="81"/>
     </row>
-    <row r="45" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>39</v>
       </c>
@@ -2464,7 +2472,7 @@
       </c>
       <c r="E45" s="81"/>
     </row>
-    <row r="46" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>63</v>
       </c>
@@ -2477,7 +2485,7 @@
       </c>
       <c r="E46" s="81"/>
     </row>
-    <row r="47" spans="1:5" s="55" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="55" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="s">
         <v>157</v>
       </c>
@@ -2492,7 +2500,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
         <v>63</v>
       </c>
@@ -2507,7 +2515,7 @@
       </c>
       <c r="E48" s="81"/>
     </row>
-    <row r="49" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="s">
         <v>168</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="s">
         <v>173</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
         <v>57</v>
       </c>
@@ -2556,7 +2564,7 @@
       </c>
       <c r="E51" s="81"/>
     </row>
-    <row r="52" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
         <v>127</v>
       </c>
@@ -2575,7 +2583,7 @@
       <c r="H52"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2598,7 @@
       </c>
       <c r="E53" s="72"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>50</v>
       </c>
@@ -2607,7 +2615,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>13</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
         <v>17</v>
       </c>
@@ -2639,7 +2647,7 @@
       </c>
       <c r="E56" s="72"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
         <v>50</v>
       </c>
@@ -2654,7 +2662,7 @@
       </c>
       <c r="E57" s="72"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="s">
         <v>63</v>
       </c>
@@ -2669,7 +2677,7 @@
       </c>
       <c r="E58" s="72"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="99" t="s">
         <v>98</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>56</v>
       </c>
@@ -2699,7 +2707,7 @@
       </c>
       <c r="E60" s="75"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="s">
         <v>29</v>
       </c>
@@ -2733,7 +2741,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="104" t="s">
         <v>78</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="104" t="s">
         <v>194</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="s">
         <v>32</v>
       </c>
@@ -2780,7 +2788,7 @@
       </c>
       <c r="E65" s="72"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="62" t="s">
         <v>193</v>
       </c>
@@ -2791,7 +2799,7 @@
       </c>
       <c r="E66" s="72"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="62" t="s">
         <v>55</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="103" t="s">
         <v>48</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="107" t="s">
         <v>11</v>
       </c>
@@ -2840,7 +2848,7 @@
       </c>
       <c r="E69" s="72"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="107" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2861,7 @@
       </c>
       <c r="E70" s="72"/>
     </row>
-    <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="103" t="s">
         <v>56</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="107" t="s">
         <v>107</v>
       </c>
@@ -2885,7 +2893,7 @@
       </c>
       <c r="E72" s="72"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="107" t="s">
         <v>54</v>
       </c>
@@ -2900,7 +2908,7 @@
       </c>
       <c r="E73" s="72"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="107" t="s">
         <v>63</v>
       </c>
@@ -2917,7 +2925,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="107" t="s">
         <v>192</v>
       </c>
@@ -2932,7 +2940,7 @@
       </c>
       <c r="E75" s="72"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
         <v>25</v>
       </c>
@@ -2949,7 +2957,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="62" t="s">
         <v>89</v>
       </c>
@@ -2964,7 +2972,7 @@
       </c>
       <c r="E77" s="72"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="62" t="s">
         <v>15</v>
       </c>
@@ -2977,11 +2985,11 @@
       <c r="D78" s="67">
         <v>45928</v>
       </c>
-      <c r="E78" s="121" t="s">
+      <c r="E78" s="119" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +3004,7 @@
       </c>
       <c r="E79" s="72"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="62" t="s">
         <v>7</v>
       </c>
@@ -3011,22 +3019,22 @@
       </c>
       <c r="E80" s="72"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="123" t="s">
+      <c r="B81" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="123" t="s">
+      <c r="C81" s="121" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="67">
         <v>45933</v>
       </c>
-      <c r="E81" s="120"/>
-    </row>
-    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E81" s="118"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="108" t="s">
         <v>61</v>
       </c>
@@ -3043,8 +3051,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="124" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="122" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="68" t="s">
@@ -3056,10 +3064,10 @@
       <c r="D83" s="68">
         <v>45945</v>
       </c>
-      <c r="E83" s="122"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="126" t="s">
+      <c r="E83" s="120"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="124" t="s">
         <v>56</v>
       </c>
       <c r="B84" s="68" t="s">
@@ -3071,10 +3079,10 @@
       <c r="D84" s="68">
         <v>45961</v>
       </c>
-      <c r="E84" s="122"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="126" t="s">
+      <c r="E84" s="120"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="68" t="s">
@@ -3086,13 +3094,13 @@
       <c r="D85" s="68">
         <v>45965</v>
       </c>
-      <c r="E85" s="122"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E85" s="120"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="123" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="50" t="s">
@@ -3103,11 +3111,11 @@
       </c>
       <c r="E86" s="72"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="125" t="s">
+      <c r="B87" s="123" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="50" t="s">
@@ -3120,8 +3128,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="124" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="122" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="50"/>
@@ -3133,8 +3141,8 @@
       </c>
       <c r="E88" s="72"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="124" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="122" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="50"/>
@@ -3146,8 +3154,8 @@
       </c>
       <c r="E89" s="72"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="124" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="50"/>
@@ -3159,8 +3167,8 @@
       </c>
       <c r="E90" s="72"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="124" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="122" t="s">
         <v>41</v>
       </c>
       <c r="B91" s="50"/>
@@ -3172,8 +3180,8 @@
       </c>
       <c r="E91" s="72"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="124" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="122" t="s">
         <v>42</v>
       </c>
       <c r="B92" s="50"/>
@@ -3185,7 +3193,7 @@
       </c>
       <c r="E92" s="72"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="s">
         <v>63</v>
       </c>
@@ -3200,8 +3208,8 @@
       </c>
       <c r="E93" s="72"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="124" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="122" t="s">
         <v>217</v>
       </c>
       <c r="B94" s="52"/>
@@ -3213,7 +3221,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="s">
         <v>107</v>
       </c>
@@ -3228,8 +3236,8 @@
       </c>
       <c r="E95" s="72"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="124" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B96" s="50"/>
@@ -3243,7 +3251,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="62" t="s">
         <v>89</v>
       </c>
@@ -3258,8 +3266,8 @@
       </c>
       <c r="E97" s="72"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="124" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="122" t="s">
         <v>109</v>
       </c>
       <c r="B98" s="50" t="s">
@@ -3273,7 +3281,7 @@
       </c>
       <c r="E98" s="72"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="62" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3296,7 @@
       </c>
       <c r="E99" s="72"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="62" t="s">
         <v>17</v>
       </c>
@@ -3303,8 +3311,8 @@
       </c>
       <c r="E100" s="72"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="124" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="122" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="50"/>
@@ -3316,8 +3324,8 @@
       </c>
       <c r="E101" s="72"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="124" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="122" t="s">
         <v>29</v>
       </c>
       <c r="B102" s="50"/>
@@ -3329,8 +3337,8 @@
       </c>
       <c r="E102" s="72"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="124" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="122" t="s">
         <v>31</v>
       </c>
       <c r="B103" s="50"/>
@@ -3342,8 +3350,8 @@
       </c>
       <c r="E103" s="72"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="124" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="122" t="s">
         <v>32</v>
       </c>
       <c r="B104" s="50"/>
@@ -3355,8 +3363,8 @@
       </c>
       <c r="E104" s="72"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="124" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="122" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="50"/>
@@ -3368,8 +3376,8 @@
       </c>
       <c r="E105" s="72"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="124" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="122" t="s">
         <v>57</v>
       </c>
       <c r="B106" s="50"/>
@@ -3381,8 +3389,8 @@
       </c>
       <c r="E106" s="72"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="124" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="122" t="s">
         <v>58</v>
       </c>
       <c r="B107" s="50"/>
@@ -3394,8 +3402,8 @@
       </c>
       <c r="E107" s="72"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="124" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="122" t="s">
         <v>59</v>
       </c>
       <c r="B108" s="50"/>
@@ -3407,8 +3415,8 @@
       </c>
       <c r="E108" s="72"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="124" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="122" t="s">
         <v>52</v>
       </c>
       <c r="B109" s="50"/>
@@ -3420,8 +3428,8 @@
       </c>
       <c r="E109" s="72"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="124" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="122" t="s">
         <v>56</v>
       </c>
       <c r="B110" s="50"/>
@@ -3433,8 +3441,8 @@
       </c>
       <c r="E110" s="72"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="124" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="122" t="s">
         <v>54</v>
       </c>
       <c r="B111" s="50"/>
@@ -3446,7 +3454,7 @@
       </c>
       <c r="E111" s="72"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="86" t="s">
         <v>147</v>
       </c>
@@ -3461,8 +3469,8 @@
       </c>
       <c r="E112" s="111"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="124" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="122" t="s">
         <v>51</v>
       </c>
       <c r="B113" s="50"/>
@@ -3474,8 +3482,8 @@
       </c>
       <c r="E113" s="72"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="124" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="122" t="s">
         <v>66</v>
       </c>
       <c r="B114" s="50"/>
@@ -3487,23 +3495,23 @@
       </c>
       <c r="E114" s="72"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="127" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="128" t="s">
+      <c r="B115" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="C115" s="128" t="s">
+      <c r="C115" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="129">
+      <c r="D115" s="127">
         <v>45995</v>
       </c>
       <c r="E115" s="72"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="124" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="122" t="s">
         <v>39</v>
       </c>
       <c r="B116" s="50"/>
@@ -3515,8 +3523,8 @@
       </c>
       <c r="E116" s="72"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="124" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="122" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="50"/>
@@ -3528,8 +3536,8 @@
       </c>
       <c r="E117" s="72"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="124" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="122" t="s">
         <v>65</v>
       </c>
       <c r="B118" s="50"/>
@@ -3541,8 +3549,8 @@
       </c>
       <c r="E118" s="72"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="124" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="122" t="s">
         <v>192</v>
       </c>
       <c r="B119" s="50" t="s">
@@ -3556,8 +3564,8 @@
       </c>
       <c r="E119" s="72"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="124" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="122" t="s">
         <v>147</v>
       </c>
       <c r="B120" s="50" t="s">
@@ -3571,7 +3579,7 @@
       </c>
       <c r="E120" s="72"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="62" t="s">
         <v>194</v>
       </c>
@@ -3586,7 +3594,7 @@
       </c>
       <c r="E121" s="72"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="62" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3609,7 @@
       </c>
       <c r="E122" s="72"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="62" t="s">
         <v>108</v>
       </c>
@@ -3616,7 +3624,7 @@
       </c>
       <c r="E123" s="72"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="62" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3637,7 @@
       </c>
       <c r="E124" s="72"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="86" t="s">
         <v>55</v>
       </c>
@@ -3646,8 +3654,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="124" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="122" t="s">
         <v>49</v>
       </c>
       <c r="B126" s="50"/>
@@ -3661,7 +3669,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="62" t="s">
         <v>17</v>
       </c>
@@ -3678,23 +3686,23 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="130" t="s">
+    <row r="128" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="128" t="s">
         <v>157</v>
       </c>
       <c r="B128" s="76"/>
-      <c r="C128" s="131" t="s">
+      <c r="C128" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="132">
+      <c r="D128" s="130">
         <v>46038</v>
       </c>
       <c r="E128" s="72" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="124" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="122" t="s">
         <v>35</v>
       </c>
       <c r="B129" s="50"/>
@@ -3706,22 +3714,22 @@
       </c>
       <c r="E129" s="72"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="137" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="138" t="s">
+      <c r="B130" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="C130" s="138" t="s">
+      <c r="C130" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="D130" s="139">
+      <c r="D130" s="136">
         <v>46038</v>
       </c>
       <c r="E130" s="72"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="62" t="s">
         <v>57</v>
       </c>
@@ -3738,36 +3746,36 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="137" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="138" t="s">
+      <c r="B132" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="138"/>
-      <c r="D132" s="139">
+      <c r="C132" s="135"/>
+      <c r="D132" s="136">
         <v>45680</v>
       </c>
-      <c r="E132" s="133" t="s">
+      <c r="E132" s="131" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="142" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B133" s="143"/>
-      <c r="C133" s="143"/>
-      <c r="D133" s="144">
+      <c r="B133" s="140"/>
+      <c r="C133" s="140"/>
+      <c r="D133" s="141">
         <v>46045</v>
       </c>
-      <c r="E133" s="136" t="s">
+      <c r="E133" s="133" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="124" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="122" t="s">
         <v>18</v>
       </c>
       <c r="B134" s="50" t="s">
@@ -3781,8 +3789,8 @@
       </c>
       <c r="E134" s="72"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="124" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="122" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="50" t="s">
@@ -3796,8 +3804,8 @@
       </c>
       <c r="E135" s="72"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="124" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="122" t="s">
         <v>194</v>
       </c>
       <c r="B136" s="50" t="s">
@@ -3811,1547 +3819,2068 @@
       </c>
       <c r="E136" s="72"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D137" s="67">
+        <v>46058</v>
+      </c>
+      <c r="E137" s="115"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D138" s="67">
+        <v>46058</v>
+      </c>
+      <c r="E138" s="115"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B139" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="50" t="s">
+      <c r="C139" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D137" s="67">
+      <c r="D139" s="67">
         <v>46062</v>
       </c>
-      <c r="E137" s="72"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="60" t="s">
+      <c r="E139" s="72"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B140" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C140" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D138" s="66">
+      <c r="D140" s="67">
         <v>46062</v>
       </c>
-      <c r="E138" s="72"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="60" t="s">
+      <c r="E140" s="72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B141" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C141" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D139" s="66">
+      <c r="D141" s="67">
         <v>46065</v>
       </c>
-      <c r="E139" s="72"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="62" t="s">
+      <c r="E141" s="72"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="B142" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="50" t="s">
+      <c r="C142" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D140" s="67">
+      <c r="D142" s="67">
         <v>46065</v>
       </c>
-      <c r="E140" s="72"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="135" t="s">
+      <c r="E142" s="72"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B143" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C143" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D141" s="66">
+      <c r="D143" s="67">
         <v>46069</v>
       </c>
-      <c r="E141" s="72"/>
-    </row>
-    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="112" t="s">
+      <c r="E143" s="72"/>
+    </row>
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="117" t="s">
+      <c r="B144" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="C142" s="117" t="s">
+      <c r="C144" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D142" s="118">
+      <c r="D144" s="68">
         <v>46070</v>
       </c>
-      <c r="E142" s="116" t="s">
+      <c r="E144" s="116" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="112" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B145" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="68">
+        <v>46072</v>
+      </c>
+      <c r="E145" s="116"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="68">
+        <v>46078</v>
+      </c>
+      <c r="E146" s="116"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="68">
+        <v>46078</v>
+      </c>
+      <c r="E147" s="116"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B143" s="113" t="s">
+      <c r="B148" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="113" t="s">
+      <c r="C148" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D143" s="114">
+      <c r="D148" s="114">
         <v>46084</v>
       </c>
-      <c r="E143" s="115" t="s">
+      <c r="E148" s="115" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="60" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D144" s="66">
+      <c r="D149" s="66">
         <v>46092</v>
       </c>
-      <c r="E144" s="72"/>
-    </row>
-    <row r="145" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A145" s="124" t="s">
+      <c r="E149" s="72"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="50" t="s">
+      <c r="B150" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C145" s="50" t="s">
+      <c r="C150" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D145" s="67">
+      <c r="D150" s="67">
         <v>46093</v>
       </c>
-      <c r="E145" s="72"/>
-    </row>
-    <row r="146" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A146" s="60" t="s">
+      <c r="E150" s="72"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D146" s="66">
+      <c r="D151" s="66">
         <v>46094</v>
       </c>
-      <c r="E146" s="72"/>
-    </row>
-    <row r="147" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A147" s="60" t="s">
+      <c r="E151" s="72"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D147" s="66">
+      <c r="D152" s="66">
         <v>46104</v>
       </c>
-      <c r="E147" s="141" t="s">
+      <c r="E152" s="138" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="148" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A148" s="61" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" s="66">
+        <v>46109</v>
+      </c>
+      <c r="E153" s="138"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D154" s="66">
+        <v>46109</v>
+      </c>
+      <c r="E154" s="138"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D155" s="66">
+        <v>46109</v>
+      </c>
+      <c r="E155" s="138"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="66">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="66">
         <v>46109</v>
       </c>
-      <c r="E148" s="72"/>
-    </row>
-    <row r="149" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A149" s="61" t="s">
+      <c r="E156" s="72"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="69">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="69">
         <v>46113</v>
       </c>
-      <c r="E149" s="72"/>
-    </row>
-    <row r="150" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A150" s="60" t="s">
+      <c r="E157" s="72"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D150" s="69">
+      <c r="D158" s="69">
         <v>46118</v>
       </c>
-      <c r="E150" s="72"/>
-    </row>
-    <row r="151" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A151" s="61" t="s">
+      <c r="E158" s="72"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D159" s="69">
+        <v>46139</v>
+      </c>
+      <c r="E159" s="72"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="69">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="69">
         <v>46165</v>
       </c>
-      <c r="E151" s="72"/>
-    </row>
-    <row r="152" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A152" s="61" t="s">
+      <c r="E160" s="72"/>
+    </row>
+    <row r="161" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A161" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="69">
+      <c r="B161" s="1"/>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="69">
         <v>46167</v>
       </c>
-      <c r="E152" s="72"/>
-    </row>
-    <row r="153" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A153" s="61" t="s">
+      <c r="E161" s="72"/>
+    </row>
+    <row r="162" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A162" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="69">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="69">
         <v>46167</v>
       </c>
-      <c r="E153" s="72"/>
-    </row>
-    <row r="154" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A154" s="61" t="s">
+      <c r="E162" s="72"/>
+    </row>
+    <row r="163" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A163" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D154" s="69">
+      <c r="D163" s="69">
         <v>46184</v>
       </c>
-      <c r="E154" s="72"/>
-    </row>
-    <row r="155" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A155" s="61" t="s">
+      <c r="E163" s="72"/>
+    </row>
+    <row r="164" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A164" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D155" s="69">
+      <c r="D164" s="69">
         <v>46184</v>
       </c>
-      <c r="E155" s="72"/>
-    </row>
-    <row r="156" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="112" t="s">
+      <c r="E164" s="72"/>
+    </row>
+    <row r="165" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B156" s="113" t="s">
+      <c r="B165" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C156" s="113" t="s">
+      <c r="C165" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D156" s="119">
+      <c r="D165" s="117">
         <v>46194</v>
       </c>
-      <c r="E156" s="115" t="s">
+      <c r="E165" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
-      <c r="T156"/>
-      <c r="U156"/>
-      <c r="V156"/>
-      <c r="W156"/>
-      <c r="X156"/>
-      <c r="Y156"/>
-      <c r="Z156"/>
-      <c r="AA156"/>
-      <c r="AB156"/>
-      <c r="AC156"/>
-      <c r="AD156"/>
-      <c r="AE156"/>
-      <c r="AF156"/>
-      <c r="AG156"/>
-      <c r="AH156"/>
-      <c r="AI156"/>
-      <c r="AJ156"/>
-      <c r="AK156"/>
-      <c r="AL156"/>
-      <c r="AM156"/>
-      <c r="AN156"/>
-      <c r="AO156"/>
-      <c r="AP156"/>
-      <c r="AQ156"/>
-      <c r="AR156"/>
-      <c r="AS156"/>
-      <c r="AT156"/>
-      <c r="AU156"/>
-      <c r="AV156"/>
-      <c r="AW156"/>
-      <c r="AX156"/>
-      <c r="AY156"/>
-      <c r="AZ156"/>
-      <c r="BA156"/>
-      <c r="BB156"/>
-      <c r="BC156"/>
-      <c r="BD156"/>
-      <c r="BE156"/>
-      <c r="BF156"/>
-      <c r="BG156"/>
-      <c r="BH156"/>
-      <c r="BI156"/>
-      <c r="BJ156"/>
-      <c r="BK156"/>
-      <c r="BL156"/>
-      <c r="BM156"/>
-      <c r="BN156"/>
-      <c r="BO156"/>
-      <c r="BP156"/>
-      <c r="BQ156"/>
-      <c r="BR156"/>
-      <c r="BS156"/>
-      <c r="BT156"/>
-      <c r="BU156"/>
-      <c r="BV156"/>
-      <c r="BW156"/>
-      <c r="BX156"/>
-      <c r="BY156"/>
-      <c r="BZ156"/>
-      <c r="CA156"/>
-      <c r="CB156"/>
-      <c r="CC156"/>
-      <c r="CD156"/>
-      <c r="CE156"/>
-      <c r="CF156"/>
-      <c r="CG156"/>
-      <c r="CH156"/>
-      <c r="CI156"/>
-      <c r="CJ156"/>
-      <c r="CK156"/>
-      <c r="CL156"/>
-      <c r="CM156"/>
-      <c r="CN156"/>
-      <c r="CO156"/>
-      <c r="CP156"/>
-      <c r="CQ156"/>
-      <c r="CR156"/>
-      <c r="CS156"/>
-      <c r="CT156"/>
-      <c r="CU156"/>
-      <c r="CV156"/>
-      <c r="CW156"/>
-      <c r="CX156"/>
-      <c r="CY156"/>
-      <c r="CZ156"/>
-      <c r="DA156"/>
-      <c r="DB156"/>
-      <c r="DC156"/>
-      <c r="DD156"/>
-      <c r="DE156"/>
-      <c r="DF156"/>
-      <c r="DG156"/>
-      <c r="DH156"/>
-      <c r="DI156"/>
-      <c r="DJ156"/>
-      <c r="DK156"/>
-      <c r="DL156"/>
-      <c r="DM156"/>
-      <c r="DN156"/>
-      <c r="DO156"/>
-      <c r="DP156"/>
-      <c r="DQ156"/>
-      <c r="DR156"/>
-    </row>
-    <row r="157" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="112" t="s">
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+      <c r="Y165"/>
+      <c r="Z165"/>
+      <c r="AA165"/>
+      <c r="AB165"/>
+      <c r="AC165"/>
+      <c r="AD165"/>
+      <c r="AE165"/>
+      <c r="AF165"/>
+      <c r="AG165"/>
+      <c r="AH165"/>
+      <c r="AI165"/>
+      <c r="AJ165"/>
+      <c r="AK165"/>
+      <c r="AL165"/>
+      <c r="AM165"/>
+      <c r="AN165"/>
+      <c r="AO165"/>
+      <c r="AP165"/>
+      <c r="AQ165"/>
+      <c r="AR165"/>
+      <c r="AS165"/>
+      <c r="AT165"/>
+      <c r="AU165"/>
+      <c r="AV165"/>
+      <c r="AW165"/>
+      <c r="AX165"/>
+      <c r="AY165"/>
+      <c r="AZ165"/>
+      <c r="BA165"/>
+      <c r="BB165"/>
+      <c r="BC165"/>
+      <c r="BD165"/>
+      <c r="BE165"/>
+      <c r="BF165"/>
+      <c r="BG165"/>
+      <c r="BH165"/>
+      <c r="BI165"/>
+      <c r="BJ165"/>
+      <c r="BK165"/>
+      <c r="BL165"/>
+      <c r="BM165"/>
+      <c r="BN165"/>
+      <c r="BO165"/>
+      <c r="BP165"/>
+      <c r="BQ165"/>
+      <c r="BR165"/>
+      <c r="BS165"/>
+      <c r="BT165"/>
+      <c r="BU165"/>
+      <c r="BV165"/>
+      <c r="BW165"/>
+      <c r="BX165"/>
+      <c r="BY165"/>
+      <c r="BZ165"/>
+      <c r="CA165"/>
+      <c r="CB165"/>
+      <c r="CC165"/>
+      <c r="CD165"/>
+      <c r="CE165"/>
+      <c r="CF165"/>
+      <c r="CG165"/>
+      <c r="CH165"/>
+      <c r="CI165"/>
+      <c r="CJ165"/>
+      <c r="CK165"/>
+      <c r="CL165"/>
+      <c r="CM165"/>
+      <c r="CN165"/>
+      <c r="CO165"/>
+      <c r="CP165"/>
+      <c r="CQ165"/>
+      <c r="CR165"/>
+      <c r="CS165"/>
+      <c r="CT165"/>
+      <c r="CU165"/>
+      <c r="CV165"/>
+      <c r="CW165"/>
+      <c r="CX165"/>
+      <c r="CY165"/>
+      <c r="CZ165"/>
+      <c r="DA165"/>
+      <c r="DB165"/>
+      <c r="DC165"/>
+      <c r="DD165"/>
+      <c r="DE165"/>
+      <c r="DF165"/>
+      <c r="DG165"/>
+      <c r="DH165"/>
+      <c r="DI165"/>
+      <c r="DJ165"/>
+      <c r="DK165"/>
+      <c r="DL165"/>
+      <c r="DM165"/>
+      <c r="DN165"/>
+      <c r="DO165"/>
+      <c r="DP165"/>
+      <c r="DQ165"/>
+      <c r="DR165"/>
+    </row>
+    <row r="166" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B157" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157" s="119">
+      <c r="B166" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="117">
         <v>46203</v>
       </c>
-      <c r="E157" s="115"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-      <c r="P157"/>
-      <c r="Q157"/>
-      <c r="R157"/>
-      <c r="S157"/>
-      <c r="T157"/>
-      <c r="U157"/>
-      <c r="V157"/>
-      <c r="W157"/>
-      <c r="X157"/>
-      <c r="Y157"/>
-      <c r="Z157"/>
-      <c r="AA157"/>
-      <c r="AB157"/>
-      <c r="AC157"/>
-      <c r="AD157"/>
-      <c r="AE157"/>
-      <c r="AF157"/>
-      <c r="AG157"/>
-      <c r="AH157"/>
-      <c r="AI157"/>
-      <c r="AJ157"/>
-      <c r="AK157"/>
-      <c r="AL157"/>
-      <c r="AM157"/>
-      <c r="AN157"/>
-      <c r="AO157"/>
-      <c r="AP157"/>
-      <c r="AQ157"/>
-      <c r="AR157"/>
-      <c r="AS157"/>
-      <c r="AT157"/>
-      <c r="AU157"/>
-      <c r="AV157"/>
-      <c r="AW157"/>
-      <c r="AX157"/>
-      <c r="AY157"/>
-      <c r="AZ157"/>
-      <c r="BA157"/>
-      <c r="BB157"/>
-      <c r="BC157"/>
-      <c r="BD157"/>
-      <c r="BE157"/>
-      <c r="BF157"/>
-      <c r="BG157"/>
-      <c r="BH157"/>
-      <c r="BI157"/>
-      <c r="BJ157"/>
-      <c r="BK157"/>
-      <c r="BL157"/>
-      <c r="BM157"/>
-      <c r="BN157"/>
-      <c r="BO157"/>
-      <c r="BP157"/>
-      <c r="BQ157"/>
-      <c r="BR157"/>
-      <c r="BS157"/>
-      <c r="BT157"/>
-      <c r="BU157"/>
-      <c r="BV157"/>
-      <c r="BW157"/>
-      <c r="BX157"/>
-      <c r="BY157"/>
-      <c r="BZ157"/>
-      <c r="CA157"/>
-      <c r="CB157"/>
-      <c r="CC157"/>
-      <c r="CD157"/>
-      <c r="CE157"/>
-      <c r="CF157"/>
-      <c r="CG157"/>
-      <c r="CH157"/>
-      <c r="CI157"/>
-      <c r="CJ157"/>
-      <c r="CK157"/>
-      <c r="CL157"/>
-      <c r="CM157"/>
-      <c r="CN157"/>
-      <c r="CO157"/>
-      <c r="CP157"/>
-      <c r="CQ157"/>
-      <c r="CR157"/>
-      <c r="CS157"/>
-      <c r="CT157"/>
-      <c r="CU157"/>
-      <c r="CV157"/>
-      <c r="CW157"/>
-      <c r="CX157"/>
-      <c r="CY157"/>
-      <c r="CZ157"/>
-      <c r="DA157"/>
-      <c r="DB157"/>
-      <c r="DC157"/>
-      <c r="DD157"/>
-      <c r="DE157"/>
-      <c r="DF157"/>
-      <c r="DG157"/>
-      <c r="DH157"/>
-      <c r="DI157"/>
-      <c r="DJ157"/>
-      <c r="DK157"/>
-      <c r="DL157"/>
-      <c r="DM157"/>
-      <c r="DN157"/>
-      <c r="DO157"/>
-      <c r="DP157"/>
-      <c r="DQ157"/>
-      <c r="DR157"/>
-    </row>
-    <row r="158" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="112" t="s">
+      <c r="E166" s="115"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166"/>
+      <c r="S166"/>
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+      <c r="Y166"/>
+      <c r="Z166"/>
+      <c r="AA166"/>
+      <c r="AB166"/>
+      <c r="AC166"/>
+      <c r="AD166"/>
+      <c r="AE166"/>
+      <c r="AF166"/>
+      <c r="AG166"/>
+      <c r="AH166"/>
+      <c r="AI166"/>
+      <c r="AJ166"/>
+      <c r="AK166"/>
+      <c r="AL166"/>
+      <c r="AM166"/>
+      <c r="AN166"/>
+      <c r="AO166"/>
+      <c r="AP166"/>
+      <c r="AQ166"/>
+      <c r="AR166"/>
+      <c r="AS166"/>
+      <c r="AT166"/>
+      <c r="AU166"/>
+      <c r="AV166"/>
+      <c r="AW166"/>
+      <c r="AX166"/>
+      <c r="AY166"/>
+      <c r="AZ166"/>
+      <c r="BA166"/>
+      <c r="BB166"/>
+      <c r="BC166"/>
+      <c r="BD166"/>
+      <c r="BE166"/>
+      <c r="BF166"/>
+      <c r="BG166"/>
+      <c r="BH166"/>
+      <c r="BI166"/>
+      <c r="BJ166"/>
+      <c r="BK166"/>
+      <c r="BL166"/>
+      <c r="BM166"/>
+      <c r="BN166"/>
+      <c r="BO166"/>
+      <c r="BP166"/>
+      <c r="BQ166"/>
+      <c r="BR166"/>
+      <c r="BS166"/>
+      <c r="BT166"/>
+      <c r="BU166"/>
+      <c r="BV166"/>
+      <c r="BW166"/>
+      <c r="BX166"/>
+      <c r="BY166"/>
+      <c r="BZ166"/>
+      <c r="CA166"/>
+      <c r="CB166"/>
+      <c r="CC166"/>
+      <c r="CD166"/>
+      <c r="CE166"/>
+      <c r="CF166"/>
+      <c r="CG166"/>
+      <c r="CH166"/>
+      <c r="CI166"/>
+      <c r="CJ166"/>
+      <c r="CK166"/>
+      <c r="CL166"/>
+      <c r="CM166"/>
+      <c r="CN166"/>
+      <c r="CO166"/>
+      <c r="CP166"/>
+      <c r="CQ166"/>
+      <c r="CR166"/>
+      <c r="CS166"/>
+      <c r="CT166"/>
+      <c r="CU166"/>
+      <c r="CV166"/>
+      <c r="CW166"/>
+      <c r="CX166"/>
+      <c r="CY166"/>
+      <c r="CZ166"/>
+      <c r="DA166"/>
+      <c r="DB166"/>
+      <c r="DC166"/>
+      <c r="DD166"/>
+      <c r="DE166"/>
+      <c r="DF166"/>
+      <c r="DG166"/>
+      <c r="DH166"/>
+      <c r="DI166"/>
+      <c r="DJ166"/>
+      <c r="DK166"/>
+      <c r="DL166"/>
+      <c r="DM166"/>
+      <c r="DN166"/>
+      <c r="DO166"/>
+      <c r="DP166"/>
+      <c r="DQ166"/>
+      <c r="DR166"/>
+    </row>
+    <row r="167" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="B158" s="113" t="s">
+      <c r="B167" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="C158" s="113" t="s">
+      <c r="C167" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="119">
+      <c r="D167" s="117">
         <v>46205</v>
       </c>
-      <c r="E158" s="115"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-      <c r="S158"/>
-      <c r="T158"/>
-      <c r="U158"/>
-      <c r="V158"/>
-      <c r="W158"/>
-      <c r="X158"/>
-      <c r="Y158"/>
-      <c r="Z158"/>
-      <c r="AA158"/>
-      <c r="AB158"/>
-      <c r="AC158"/>
-      <c r="AD158"/>
-      <c r="AE158"/>
-      <c r="AF158"/>
-      <c r="AG158"/>
-      <c r="AH158"/>
-      <c r="AI158"/>
-      <c r="AJ158"/>
-      <c r="AK158"/>
-      <c r="AL158"/>
-      <c r="AM158"/>
-      <c r="AN158"/>
-      <c r="AO158"/>
-      <c r="AP158"/>
-      <c r="AQ158"/>
-      <c r="AR158"/>
-      <c r="AS158"/>
-      <c r="AT158"/>
-      <c r="AU158"/>
-      <c r="AV158"/>
-      <c r="AW158"/>
-      <c r="AX158"/>
-      <c r="AY158"/>
-      <c r="AZ158"/>
-      <c r="BA158"/>
-      <c r="BB158"/>
-      <c r="BC158"/>
-      <c r="BD158"/>
-      <c r="BE158"/>
-      <c r="BF158"/>
-      <c r="BG158"/>
-      <c r="BH158"/>
-      <c r="BI158"/>
-      <c r="BJ158"/>
-      <c r="BK158"/>
-      <c r="BL158"/>
-      <c r="BM158"/>
-      <c r="BN158"/>
-      <c r="BO158"/>
-      <c r="BP158"/>
-      <c r="BQ158"/>
-      <c r="BR158"/>
-      <c r="BS158"/>
-      <c r="BT158"/>
-      <c r="BU158"/>
-      <c r="BV158"/>
-      <c r="BW158"/>
-      <c r="BX158"/>
-      <c r="BY158"/>
-      <c r="BZ158"/>
-      <c r="CA158"/>
-      <c r="CB158"/>
-      <c r="CC158"/>
-      <c r="CD158"/>
-      <c r="CE158"/>
-      <c r="CF158"/>
-      <c r="CG158"/>
-      <c r="CH158"/>
-      <c r="CI158"/>
-      <c r="CJ158"/>
-      <c r="CK158"/>
-      <c r="CL158"/>
-      <c r="CM158"/>
-      <c r="CN158"/>
-      <c r="CO158"/>
-      <c r="CP158"/>
-      <c r="CQ158"/>
-      <c r="CR158"/>
-      <c r="CS158"/>
-      <c r="CT158"/>
-      <c r="CU158"/>
-      <c r="CV158"/>
-      <c r="CW158"/>
-      <c r="CX158"/>
-      <c r="CY158"/>
-      <c r="CZ158"/>
-      <c r="DA158"/>
-      <c r="DB158"/>
-      <c r="DC158"/>
-      <c r="DD158"/>
-      <c r="DE158"/>
-      <c r="DF158"/>
-      <c r="DG158"/>
-      <c r="DH158"/>
-      <c r="DI158"/>
-      <c r="DJ158"/>
-      <c r="DK158"/>
-      <c r="DL158"/>
-      <c r="DM158"/>
-      <c r="DN158"/>
-      <c r="DO158"/>
-      <c r="DP158"/>
-      <c r="DQ158"/>
-      <c r="DR158"/>
-    </row>
-    <row r="159" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="112" t="s">
+      <c r="E167" s="115"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+      <c r="S167"/>
+      <c r="T167"/>
+      <c r="U167"/>
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+      <c r="Y167"/>
+      <c r="Z167"/>
+      <c r="AA167"/>
+      <c r="AB167"/>
+      <c r="AC167"/>
+      <c r="AD167"/>
+      <c r="AE167"/>
+      <c r="AF167"/>
+      <c r="AG167"/>
+      <c r="AH167"/>
+      <c r="AI167"/>
+      <c r="AJ167"/>
+      <c r="AK167"/>
+      <c r="AL167"/>
+      <c r="AM167"/>
+      <c r="AN167"/>
+      <c r="AO167"/>
+      <c r="AP167"/>
+      <c r="AQ167"/>
+      <c r="AR167"/>
+      <c r="AS167"/>
+      <c r="AT167"/>
+      <c r="AU167"/>
+      <c r="AV167"/>
+      <c r="AW167"/>
+      <c r="AX167"/>
+      <c r="AY167"/>
+      <c r="AZ167"/>
+      <c r="BA167"/>
+      <c r="BB167"/>
+      <c r="BC167"/>
+      <c r="BD167"/>
+      <c r="BE167"/>
+      <c r="BF167"/>
+      <c r="BG167"/>
+      <c r="BH167"/>
+      <c r="BI167"/>
+      <c r="BJ167"/>
+      <c r="BK167"/>
+      <c r="BL167"/>
+      <c r="BM167"/>
+      <c r="BN167"/>
+      <c r="BO167"/>
+      <c r="BP167"/>
+      <c r="BQ167"/>
+      <c r="BR167"/>
+      <c r="BS167"/>
+      <c r="BT167"/>
+      <c r="BU167"/>
+      <c r="BV167"/>
+      <c r="BW167"/>
+      <c r="BX167"/>
+      <c r="BY167"/>
+      <c r="BZ167"/>
+      <c r="CA167"/>
+      <c r="CB167"/>
+      <c r="CC167"/>
+      <c r="CD167"/>
+      <c r="CE167"/>
+      <c r="CF167"/>
+      <c r="CG167"/>
+      <c r="CH167"/>
+      <c r="CI167"/>
+      <c r="CJ167"/>
+      <c r="CK167"/>
+      <c r="CL167"/>
+      <c r="CM167"/>
+      <c r="CN167"/>
+      <c r="CO167"/>
+      <c r="CP167"/>
+      <c r="CQ167"/>
+      <c r="CR167"/>
+      <c r="CS167"/>
+      <c r="CT167"/>
+      <c r="CU167"/>
+      <c r="CV167"/>
+      <c r="CW167"/>
+      <c r="CX167"/>
+      <c r="CY167"/>
+      <c r="CZ167"/>
+      <c r="DA167"/>
+      <c r="DB167"/>
+      <c r="DC167"/>
+      <c r="DD167"/>
+      <c r="DE167"/>
+      <c r="DF167"/>
+      <c r="DG167"/>
+      <c r="DH167"/>
+      <c r="DI167"/>
+      <c r="DJ167"/>
+      <c r="DK167"/>
+      <c r="DL167"/>
+      <c r="DM167"/>
+      <c r="DN167"/>
+      <c r="DO167"/>
+      <c r="DP167"/>
+      <c r="DQ167"/>
+      <c r="DR167"/>
+    </row>
+    <row r="168" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="B159" s="113" t="s">
+      <c r="B168" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="C159" s="113" t="s">
+      <c r="C168" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="D159" s="119">
+      <c r="D168" s="117">
         <v>46205</v>
       </c>
-      <c r="E159" s="115"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-      <c r="S159"/>
-      <c r="T159"/>
-      <c r="U159"/>
-      <c r="V159"/>
-      <c r="W159"/>
-      <c r="X159"/>
-      <c r="Y159"/>
-      <c r="Z159"/>
-      <c r="AA159"/>
-      <c r="AB159"/>
-      <c r="AC159"/>
-      <c r="AD159"/>
-      <c r="AE159"/>
-      <c r="AF159"/>
-      <c r="AG159"/>
-      <c r="AH159"/>
-      <c r="AI159"/>
-      <c r="AJ159"/>
-      <c r="AK159"/>
-      <c r="AL159"/>
-      <c r="AM159"/>
-      <c r="AN159"/>
-      <c r="AO159"/>
-      <c r="AP159"/>
-      <c r="AQ159"/>
-      <c r="AR159"/>
-      <c r="AS159"/>
-      <c r="AT159"/>
-      <c r="AU159"/>
-      <c r="AV159"/>
-      <c r="AW159"/>
-      <c r="AX159"/>
-      <c r="AY159"/>
-      <c r="AZ159"/>
-      <c r="BA159"/>
-      <c r="BB159"/>
-      <c r="BC159"/>
-      <c r="BD159"/>
-      <c r="BE159"/>
-      <c r="BF159"/>
-      <c r="BG159"/>
-      <c r="BH159"/>
-      <c r="BI159"/>
-      <c r="BJ159"/>
-      <c r="BK159"/>
-      <c r="BL159"/>
-      <c r="BM159"/>
-      <c r="BN159"/>
-      <c r="BO159"/>
-      <c r="BP159"/>
-      <c r="BQ159"/>
-      <c r="BR159"/>
-      <c r="BS159"/>
-      <c r="BT159"/>
-      <c r="BU159"/>
-      <c r="BV159"/>
-      <c r="BW159"/>
-      <c r="BX159"/>
-      <c r="BY159"/>
-      <c r="BZ159"/>
-      <c r="CA159"/>
-      <c r="CB159"/>
-      <c r="CC159"/>
-      <c r="CD159"/>
-      <c r="CE159"/>
-      <c r="CF159"/>
-      <c r="CG159"/>
-      <c r="CH159"/>
-      <c r="CI159"/>
-      <c r="CJ159"/>
-      <c r="CK159"/>
-      <c r="CL159"/>
-      <c r="CM159"/>
-      <c r="CN159"/>
-      <c r="CO159"/>
-      <c r="CP159"/>
-      <c r="CQ159"/>
-      <c r="CR159"/>
-      <c r="CS159"/>
-      <c r="CT159"/>
-      <c r="CU159"/>
-      <c r="CV159"/>
-      <c r="CW159"/>
-      <c r="CX159"/>
-      <c r="CY159"/>
-      <c r="CZ159"/>
-      <c r="DA159"/>
-      <c r="DB159"/>
-      <c r="DC159"/>
-      <c r="DD159"/>
-      <c r="DE159"/>
-      <c r="DF159"/>
-      <c r="DG159"/>
-      <c r="DH159"/>
-      <c r="DI159"/>
-      <c r="DJ159"/>
-      <c r="DK159"/>
-      <c r="DL159"/>
-      <c r="DM159"/>
-      <c r="DN159"/>
-      <c r="DO159"/>
-      <c r="DP159"/>
-      <c r="DQ159"/>
-      <c r="DR159"/>
-    </row>
-    <row r="160" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="112" t="s">
+      <c r="E168" s="115"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+      <c r="S168"/>
+      <c r="T168"/>
+      <c r="U168"/>
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+      <c r="Y168"/>
+      <c r="Z168"/>
+      <c r="AA168"/>
+      <c r="AB168"/>
+      <c r="AC168"/>
+      <c r="AD168"/>
+      <c r="AE168"/>
+      <c r="AF168"/>
+      <c r="AG168"/>
+      <c r="AH168"/>
+      <c r="AI168"/>
+      <c r="AJ168"/>
+      <c r="AK168"/>
+      <c r="AL168"/>
+      <c r="AM168"/>
+      <c r="AN168"/>
+      <c r="AO168"/>
+      <c r="AP168"/>
+      <c r="AQ168"/>
+      <c r="AR168"/>
+      <c r="AS168"/>
+      <c r="AT168"/>
+      <c r="AU168"/>
+      <c r="AV168"/>
+      <c r="AW168"/>
+      <c r="AX168"/>
+      <c r="AY168"/>
+      <c r="AZ168"/>
+      <c r="BA168"/>
+      <c r="BB168"/>
+      <c r="BC168"/>
+      <c r="BD168"/>
+      <c r="BE168"/>
+      <c r="BF168"/>
+      <c r="BG168"/>
+      <c r="BH168"/>
+      <c r="BI168"/>
+      <c r="BJ168"/>
+      <c r="BK168"/>
+      <c r="BL168"/>
+      <c r="BM168"/>
+      <c r="BN168"/>
+      <c r="BO168"/>
+      <c r="BP168"/>
+      <c r="BQ168"/>
+      <c r="BR168"/>
+      <c r="BS168"/>
+      <c r="BT168"/>
+      <c r="BU168"/>
+      <c r="BV168"/>
+      <c r="BW168"/>
+      <c r="BX168"/>
+      <c r="BY168"/>
+      <c r="BZ168"/>
+      <c r="CA168"/>
+      <c r="CB168"/>
+      <c r="CC168"/>
+      <c r="CD168"/>
+      <c r="CE168"/>
+      <c r="CF168"/>
+      <c r="CG168"/>
+      <c r="CH168"/>
+      <c r="CI168"/>
+      <c r="CJ168"/>
+      <c r="CK168"/>
+      <c r="CL168"/>
+      <c r="CM168"/>
+      <c r="CN168"/>
+      <c r="CO168"/>
+      <c r="CP168"/>
+      <c r="CQ168"/>
+      <c r="CR168"/>
+      <c r="CS168"/>
+      <c r="CT168"/>
+      <c r="CU168"/>
+      <c r="CV168"/>
+      <c r="CW168"/>
+      <c r="CX168"/>
+      <c r="CY168"/>
+      <c r="CZ168"/>
+      <c r="DA168"/>
+      <c r="DB168"/>
+      <c r="DC168"/>
+      <c r="DD168"/>
+      <c r="DE168"/>
+      <c r="DF168"/>
+      <c r="DG168"/>
+      <c r="DH168"/>
+      <c r="DI168"/>
+      <c r="DJ168"/>
+      <c r="DK168"/>
+      <c r="DL168"/>
+      <c r="DM168"/>
+      <c r="DN168"/>
+      <c r="DO168"/>
+      <c r="DP168"/>
+      <c r="DQ168"/>
+      <c r="DR168"/>
+    </row>
+    <row r="169" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D169" s="117">
+        <v>46211</v>
+      </c>
+      <c r="E169" s="115"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+      <c r="S169"/>
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+      <c r="Y169"/>
+      <c r="Z169"/>
+      <c r="AA169"/>
+      <c r="AB169"/>
+      <c r="AC169"/>
+      <c r="AD169"/>
+      <c r="AE169"/>
+      <c r="AF169"/>
+      <c r="AG169"/>
+      <c r="AH169"/>
+      <c r="AI169"/>
+      <c r="AJ169"/>
+      <c r="AK169"/>
+      <c r="AL169"/>
+      <c r="AM169"/>
+      <c r="AN169"/>
+      <c r="AO169"/>
+      <c r="AP169"/>
+      <c r="AQ169"/>
+      <c r="AR169"/>
+      <c r="AS169"/>
+      <c r="AT169"/>
+      <c r="AU169"/>
+      <c r="AV169"/>
+      <c r="AW169"/>
+      <c r="AX169"/>
+      <c r="AY169"/>
+      <c r="AZ169"/>
+      <c r="BA169"/>
+      <c r="BB169"/>
+      <c r="BC169"/>
+      <c r="BD169"/>
+      <c r="BE169"/>
+      <c r="BF169"/>
+      <c r="BG169"/>
+      <c r="BH169"/>
+      <c r="BI169"/>
+      <c r="BJ169"/>
+      <c r="BK169"/>
+      <c r="BL169"/>
+      <c r="BM169"/>
+      <c r="BN169"/>
+      <c r="BO169"/>
+      <c r="BP169"/>
+      <c r="BQ169"/>
+      <c r="BR169"/>
+      <c r="BS169"/>
+      <c r="BT169"/>
+      <c r="BU169"/>
+      <c r="BV169"/>
+      <c r="BW169"/>
+      <c r="BX169"/>
+      <c r="BY169"/>
+      <c r="BZ169"/>
+      <c r="CA169"/>
+      <c r="CB169"/>
+      <c r="CC169"/>
+      <c r="CD169"/>
+      <c r="CE169"/>
+      <c r="CF169"/>
+      <c r="CG169"/>
+      <c r="CH169"/>
+      <c r="CI169"/>
+      <c r="CJ169"/>
+      <c r="CK169"/>
+      <c r="CL169"/>
+      <c r="CM169"/>
+      <c r="CN169"/>
+      <c r="CO169"/>
+      <c r="CP169"/>
+      <c r="CQ169"/>
+      <c r="CR169"/>
+      <c r="CS169"/>
+      <c r="CT169"/>
+      <c r="CU169"/>
+      <c r="CV169"/>
+      <c r="CW169"/>
+      <c r="CX169"/>
+      <c r="CY169"/>
+      <c r="CZ169"/>
+      <c r="DA169"/>
+      <c r="DB169"/>
+      <c r="DC169"/>
+      <c r="DD169"/>
+      <c r="DE169"/>
+      <c r="DF169"/>
+      <c r="DG169"/>
+      <c r="DH169"/>
+      <c r="DI169"/>
+      <c r="DJ169"/>
+      <c r="DK169"/>
+      <c r="DL169"/>
+      <c r="DM169"/>
+      <c r="DN169"/>
+      <c r="DO169"/>
+      <c r="DP169"/>
+      <c r="DQ169"/>
+      <c r="DR169"/>
+    </row>
+    <row r="170" spans="1:122" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B160" s="113" t="s">
+      <c r="B170" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="113" t="s">
+      <c r="C170" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="D160" s="119">
+      <c r="D170" s="117">
         <v>46211</v>
       </c>
-      <c r="E160" s="115"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
-      <c r="L160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
-      <c r="R160"/>
-      <c r="S160"/>
-      <c r="T160"/>
-      <c r="U160"/>
-      <c r="V160"/>
-      <c r="W160"/>
-      <c r="X160"/>
-      <c r="Y160"/>
-      <c r="Z160"/>
-      <c r="AA160"/>
-      <c r="AB160"/>
-      <c r="AC160"/>
-      <c r="AD160"/>
-      <c r="AE160"/>
-      <c r="AF160"/>
-      <c r="AG160"/>
-      <c r="AH160"/>
-      <c r="AI160"/>
-      <c r="AJ160"/>
-      <c r="AK160"/>
-      <c r="AL160"/>
-      <c r="AM160"/>
-      <c r="AN160"/>
-      <c r="AO160"/>
-      <c r="AP160"/>
-      <c r="AQ160"/>
-      <c r="AR160"/>
-      <c r="AS160"/>
-      <c r="AT160"/>
-      <c r="AU160"/>
-      <c r="AV160"/>
-      <c r="AW160"/>
-      <c r="AX160"/>
-      <c r="AY160"/>
-      <c r="AZ160"/>
-      <c r="BA160"/>
-      <c r="BB160"/>
-      <c r="BC160"/>
-      <c r="BD160"/>
-      <c r="BE160"/>
-      <c r="BF160"/>
-      <c r="BG160"/>
-      <c r="BH160"/>
-      <c r="BI160"/>
-      <c r="BJ160"/>
-      <c r="BK160"/>
-      <c r="BL160"/>
-      <c r="BM160"/>
-      <c r="BN160"/>
-      <c r="BO160"/>
-      <c r="BP160"/>
-      <c r="BQ160"/>
-      <c r="BR160"/>
-      <c r="BS160"/>
-      <c r="BT160"/>
-      <c r="BU160"/>
-      <c r="BV160"/>
-      <c r="BW160"/>
-      <c r="BX160"/>
-      <c r="BY160"/>
-      <c r="BZ160"/>
-      <c r="CA160"/>
-      <c r="CB160"/>
-      <c r="CC160"/>
-      <c r="CD160"/>
-      <c r="CE160"/>
-      <c r="CF160"/>
-      <c r="CG160"/>
-      <c r="CH160"/>
-      <c r="CI160"/>
-      <c r="CJ160"/>
-      <c r="CK160"/>
-      <c r="CL160"/>
-      <c r="CM160"/>
-      <c r="CN160"/>
-      <c r="CO160"/>
-      <c r="CP160"/>
-      <c r="CQ160"/>
-      <c r="CR160"/>
-      <c r="CS160"/>
-      <c r="CT160"/>
-      <c r="CU160"/>
-      <c r="CV160"/>
-      <c r="CW160"/>
-      <c r="CX160"/>
-      <c r="CY160"/>
-      <c r="CZ160"/>
-      <c r="DA160"/>
-      <c r="DB160"/>
-      <c r="DC160"/>
-      <c r="DD160"/>
-      <c r="DE160"/>
-      <c r="DF160"/>
-      <c r="DG160"/>
-      <c r="DH160"/>
-      <c r="DI160"/>
-      <c r="DJ160"/>
-      <c r="DK160"/>
-      <c r="DL160"/>
-      <c r="DM160"/>
-      <c r="DN160"/>
-      <c r="DO160"/>
-      <c r="DP160"/>
-      <c r="DQ160"/>
-      <c r="DR160"/>
-    </row>
-    <row r="161" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="64" t="s">
+      <c r="E170" s="115"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+      <c r="S170"/>
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+      <c r="Y170"/>
+      <c r="Z170"/>
+      <c r="AA170"/>
+      <c r="AB170"/>
+      <c r="AC170"/>
+      <c r="AD170"/>
+      <c r="AE170"/>
+      <c r="AF170"/>
+      <c r="AG170"/>
+      <c r="AH170"/>
+      <c r="AI170"/>
+      <c r="AJ170"/>
+      <c r="AK170"/>
+      <c r="AL170"/>
+      <c r="AM170"/>
+      <c r="AN170"/>
+      <c r="AO170"/>
+      <c r="AP170"/>
+      <c r="AQ170"/>
+      <c r="AR170"/>
+      <c r="AS170"/>
+      <c r="AT170"/>
+      <c r="AU170"/>
+      <c r="AV170"/>
+      <c r="AW170"/>
+      <c r="AX170"/>
+      <c r="AY170"/>
+      <c r="AZ170"/>
+      <c r="BA170"/>
+      <c r="BB170"/>
+      <c r="BC170"/>
+      <c r="BD170"/>
+      <c r="BE170"/>
+      <c r="BF170"/>
+      <c r="BG170"/>
+      <c r="BH170"/>
+      <c r="BI170"/>
+      <c r="BJ170"/>
+      <c r="BK170"/>
+      <c r="BL170"/>
+      <c r="BM170"/>
+      <c r="BN170"/>
+      <c r="BO170"/>
+      <c r="BP170"/>
+      <c r="BQ170"/>
+      <c r="BR170"/>
+      <c r="BS170"/>
+      <c r="BT170"/>
+      <c r="BU170"/>
+      <c r="BV170"/>
+      <c r="BW170"/>
+      <c r="BX170"/>
+      <c r="BY170"/>
+      <c r="BZ170"/>
+      <c r="CA170"/>
+      <c r="CB170"/>
+      <c r="CC170"/>
+      <c r="CD170"/>
+      <c r="CE170"/>
+      <c r="CF170"/>
+      <c r="CG170"/>
+      <c r="CH170"/>
+      <c r="CI170"/>
+      <c r="CJ170"/>
+      <c r="CK170"/>
+      <c r="CL170"/>
+      <c r="CM170"/>
+      <c r="CN170"/>
+      <c r="CO170"/>
+      <c r="CP170"/>
+      <c r="CQ170"/>
+      <c r="CR170"/>
+      <c r="CS170"/>
+      <c r="CT170"/>
+      <c r="CU170"/>
+      <c r="CV170"/>
+      <c r="CW170"/>
+      <c r="CX170"/>
+      <c r="CY170"/>
+      <c r="CZ170"/>
+      <c r="DA170"/>
+      <c r="DB170"/>
+      <c r="DC170"/>
+      <c r="DD170"/>
+      <c r="DE170"/>
+      <c r="DF170"/>
+      <c r="DG170"/>
+      <c r="DH170"/>
+      <c r="DI170"/>
+      <c r="DJ170"/>
+      <c r="DK170"/>
+      <c r="DL170"/>
+      <c r="DM170"/>
+      <c r="DN170"/>
+      <c r="DO170"/>
+      <c r="DP170"/>
+      <c r="DQ170"/>
+      <c r="DR170"/>
+    </row>
+    <row r="171" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="43" t="s">
+      <c r="B171" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C171" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="70">
+      <c r="D171" s="70">
         <v>46220</v>
       </c>
-      <c r="E161" s="75"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161"/>
-      <c r="P161"/>
-      <c r="Q161"/>
-      <c r="R161"/>
-      <c r="S161"/>
-      <c r="T161"/>
-      <c r="U161"/>
-      <c r="V161"/>
-      <c r="W161"/>
-      <c r="X161"/>
-      <c r="Y161"/>
-      <c r="Z161"/>
-      <c r="AA161"/>
-      <c r="AB161"/>
-      <c r="AC161"/>
-      <c r="AD161"/>
-      <c r="AE161"/>
-      <c r="AF161"/>
-      <c r="AG161"/>
-      <c r="AH161"/>
-      <c r="AI161"/>
-      <c r="AJ161"/>
-      <c r="AK161"/>
-      <c r="AL161"/>
-      <c r="AM161"/>
-      <c r="AN161"/>
-      <c r="AO161"/>
-      <c r="AP161"/>
-      <c r="AQ161"/>
-      <c r="AR161"/>
-      <c r="AS161"/>
-      <c r="AT161"/>
-      <c r="AU161"/>
-      <c r="AV161"/>
-      <c r="AW161"/>
-      <c r="AX161"/>
-      <c r="AY161"/>
-      <c r="AZ161"/>
-      <c r="BA161"/>
-      <c r="BB161"/>
-      <c r="BC161"/>
-      <c r="BD161"/>
-      <c r="BE161"/>
-      <c r="BF161"/>
-      <c r="BG161"/>
-      <c r="BH161"/>
-      <c r="BI161"/>
-      <c r="BJ161"/>
-      <c r="BK161"/>
-      <c r="BL161"/>
-      <c r="BM161"/>
-      <c r="BN161"/>
-      <c r="BO161"/>
-      <c r="BP161"/>
-      <c r="BQ161"/>
-      <c r="BR161"/>
-      <c r="BS161"/>
-      <c r="BT161"/>
-      <c r="BU161"/>
-      <c r="BV161"/>
-      <c r="BW161"/>
-      <c r="BX161"/>
-      <c r="BY161"/>
-      <c r="BZ161"/>
-      <c r="CA161"/>
-      <c r="CB161"/>
-      <c r="CC161"/>
-      <c r="CD161"/>
-      <c r="CE161"/>
-      <c r="CF161"/>
-      <c r="CG161"/>
-      <c r="CH161"/>
-      <c r="CI161"/>
-      <c r="CJ161"/>
-      <c r="CK161"/>
-      <c r="CL161"/>
-      <c r="CM161"/>
-      <c r="CN161"/>
-      <c r="CO161"/>
-      <c r="CP161"/>
-      <c r="CQ161"/>
-      <c r="CR161"/>
-      <c r="CS161"/>
-      <c r="CT161"/>
-      <c r="CU161"/>
-      <c r="CV161"/>
-      <c r="CW161"/>
-      <c r="CX161"/>
-      <c r="CY161"/>
-      <c r="CZ161"/>
-      <c r="DA161"/>
-      <c r="DB161"/>
-      <c r="DC161"/>
-      <c r="DD161"/>
-      <c r="DE161"/>
-      <c r="DF161"/>
-      <c r="DG161"/>
-      <c r="DH161"/>
-      <c r="DI161"/>
-      <c r="DJ161"/>
-      <c r="DK161"/>
-      <c r="DL161"/>
-      <c r="DM161"/>
-      <c r="DN161"/>
-      <c r="DO161"/>
-      <c r="DP161"/>
-      <c r="DQ161"/>
-      <c r="DR161"/>
-    </row>
-    <row r="162" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A162" s="61" t="s">
+      <c r="E171" s="75"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+      <c r="S171"/>
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+      <c r="Y171"/>
+      <c r="Z171"/>
+      <c r="AA171"/>
+      <c r="AB171"/>
+      <c r="AC171"/>
+      <c r="AD171"/>
+      <c r="AE171"/>
+      <c r="AF171"/>
+      <c r="AG171"/>
+      <c r="AH171"/>
+      <c r="AI171"/>
+      <c r="AJ171"/>
+      <c r="AK171"/>
+      <c r="AL171"/>
+      <c r="AM171"/>
+      <c r="AN171"/>
+      <c r="AO171"/>
+      <c r="AP171"/>
+      <c r="AQ171"/>
+      <c r="AR171"/>
+      <c r="AS171"/>
+      <c r="AT171"/>
+      <c r="AU171"/>
+      <c r="AV171"/>
+      <c r="AW171"/>
+      <c r="AX171"/>
+      <c r="AY171"/>
+      <c r="AZ171"/>
+      <c r="BA171"/>
+      <c r="BB171"/>
+      <c r="BC171"/>
+      <c r="BD171"/>
+      <c r="BE171"/>
+      <c r="BF171"/>
+      <c r="BG171"/>
+      <c r="BH171"/>
+      <c r="BI171"/>
+      <c r="BJ171"/>
+      <c r="BK171"/>
+      <c r="BL171"/>
+      <c r="BM171"/>
+      <c r="BN171"/>
+      <c r="BO171"/>
+      <c r="BP171"/>
+      <c r="BQ171"/>
+      <c r="BR171"/>
+      <c r="BS171"/>
+      <c r="BT171"/>
+      <c r="BU171"/>
+      <c r="BV171"/>
+      <c r="BW171"/>
+      <c r="BX171"/>
+      <c r="BY171"/>
+      <c r="BZ171"/>
+      <c r="CA171"/>
+      <c r="CB171"/>
+      <c r="CC171"/>
+      <c r="CD171"/>
+      <c r="CE171"/>
+      <c r="CF171"/>
+      <c r="CG171"/>
+      <c r="CH171"/>
+      <c r="CI171"/>
+      <c r="CJ171"/>
+      <c r="CK171"/>
+      <c r="CL171"/>
+      <c r="CM171"/>
+      <c r="CN171"/>
+      <c r="CO171"/>
+      <c r="CP171"/>
+      <c r="CQ171"/>
+      <c r="CR171"/>
+      <c r="CS171"/>
+      <c r="CT171"/>
+      <c r="CU171"/>
+      <c r="CV171"/>
+      <c r="CW171"/>
+      <c r="CX171"/>
+      <c r="CY171"/>
+      <c r="CZ171"/>
+      <c r="DA171"/>
+      <c r="DB171"/>
+      <c r="DC171"/>
+      <c r="DD171"/>
+      <c r="DE171"/>
+      <c r="DF171"/>
+      <c r="DG171"/>
+      <c r="DH171"/>
+      <c r="DI171"/>
+      <c r="DJ171"/>
+      <c r="DK171"/>
+      <c r="DL171"/>
+      <c r="DM171"/>
+      <c r="DN171"/>
+      <c r="DO171"/>
+      <c r="DP171"/>
+      <c r="DQ171"/>
+      <c r="DR171"/>
+    </row>
+    <row r="172" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172" s="70">
+        <v>46230</v>
+      </c>
+      <c r="E172" s="75"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+      <c r="Y172"/>
+      <c r="Z172"/>
+      <c r="AA172"/>
+      <c r="AB172"/>
+      <c r="AC172"/>
+      <c r="AD172"/>
+      <c r="AE172"/>
+      <c r="AF172"/>
+      <c r="AG172"/>
+      <c r="AH172"/>
+      <c r="AI172"/>
+      <c r="AJ172"/>
+      <c r="AK172"/>
+      <c r="AL172"/>
+      <c r="AM172"/>
+      <c r="AN172"/>
+      <c r="AO172"/>
+      <c r="AP172"/>
+      <c r="AQ172"/>
+      <c r="AR172"/>
+      <c r="AS172"/>
+      <c r="AT172"/>
+      <c r="AU172"/>
+      <c r="AV172"/>
+      <c r="AW172"/>
+      <c r="AX172"/>
+      <c r="AY172"/>
+      <c r="AZ172"/>
+      <c r="BA172"/>
+      <c r="BB172"/>
+      <c r="BC172"/>
+      <c r="BD172"/>
+      <c r="BE172"/>
+      <c r="BF172"/>
+      <c r="BG172"/>
+      <c r="BH172"/>
+      <c r="BI172"/>
+      <c r="BJ172"/>
+      <c r="BK172"/>
+      <c r="BL172"/>
+      <c r="BM172"/>
+      <c r="BN172"/>
+      <c r="BO172"/>
+      <c r="BP172"/>
+      <c r="BQ172"/>
+      <c r="BR172"/>
+      <c r="BS172"/>
+      <c r="BT172"/>
+      <c r="BU172"/>
+      <c r="BV172"/>
+      <c r="BW172"/>
+      <c r="BX172"/>
+      <c r="BY172"/>
+      <c r="BZ172"/>
+      <c r="CA172"/>
+      <c r="CB172"/>
+      <c r="CC172"/>
+      <c r="CD172"/>
+      <c r="CE172"/>
+      <c r="CF172"/>
+      <c r="CG172"/>
+      <c r="CH172"/>
+      <c r="CI172"/>
+      <c r="CJ172"/>
+      <c r="CK172"/>
+      <c r="CL172"/>
+      <c r="CM172"/>
+      <c r="CN172"/>
+      <c r="CO172"/>
+      <c r="CP172"/>
+      <c r="CQ172"/>
+      <c r="CR172"/>
+      <c r="CS172"/>
+      <c r="CT172"/>
+      <c r="CU172"/>
+      <c r="CV172"/>
+      <c r="CW172"/>
+      <c r="CX172"/>
+      <c r="CY172"/>
+      <c r="CZ172"/>
+      <c r="DA172"/>
+      <c r="DB172"/>
+      <c r="DC172"/>
+      <c r="DD172"/>
+      <c r="DE172"/>
+      <c r="DF172"/>
+      <c r="DG172"/>
+      <c r="DH172"/>
+      <c r="DI172"/>
+      <c r="DJ172"/>
+      <c r="DK172"/>
+      <c r="DL172"/>
+      <c r="DM172"/>
+      <c r="DN172"/>
+      <c r="DO172"/>
+      <c r="DP172"/>
+      <c r="DQ172"/>
+      <c r="DR172"/>
+    </row>
+    <row r="173" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A173" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="69">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="69">
         <v>46230</v>
       </c>
-      <c r="E162" s="72"/>
-    </row>
-    <row r="163" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A163" s="60" t="s">
+      <c r="E173" s="72"/>
+    </row>
+    <row r="174" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A174" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="69">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="69">
         <v>46245</v>
       </c>
-      <c r="E163" s="72"/>
-    </row>
-    <row r="164" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A164" s="61" t="s">
+      <c r="E174" s="72"/>
+    </row>
+    <row r="175" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A175" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D164" s="69">
+      <c r="D175" s="69">
         <v>46260</v>
       </c>
-      <c r="E164" s="72"/>
-    </row>
-    <row r="165" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A165" s="124" t="s">
+      <c r="E175" s="72"/>
+    </row>
+    <row r="176" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A176" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B165" s="50" t="s">
+      <c r="B176" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C165" s="50" t="s">
+      <c r="C176" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D165" s="140">
+      <c r="D176" s="137">
         <v>46282</v>
       </c>
-      <c r="E165" s="72" t="s">
+      <c r="E176" s="72" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A166" s="61" t="s">
+    <row r="177" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A177" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="69">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="69">
         <v>46307</v>
       </c>
-      <c r="E166" s="72"/>
-    </row>
-    <row r="167" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A167" s="61" t="s">
+      <c r="E177" s="72"/>
+    </row>
+    <row r="178" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A178" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="69">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="69">
         <v>46313</v>
       </c>
-      <c r="E167" s="72"/>
-    </row>
-    <row r="168" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A168" s="60" t="s">
+      <c r="E178" s="72"/>
+    </row>
+    <row r="179" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A179" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="69">
-        <v>46319</v>
-      </c>
-      <c r="E168" s="72"/>
-    </row>
-    <row r="169" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A169" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D169" s="69">
-        <v>46320</v>
-      </c>
-      <c r="E169" s="72"/>
-    </row>
-    <row r="170" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A170" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="69">
-        <v>46328</v>
-      </c>
-      <c r="E170" s="72"/>
-    </row>
-    <row r="171" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A171" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D171" s="69">
-        <v>46329</v>
-      </c>
-      <c r="E171" s="72"/>
-    </row>
-    <row r="172" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A172" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="69">
-        <v>46358</v>
-      </c>
-      <c r="E172" s="72"/>
-    </row>
-    <row r="173" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A173" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D173" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E173" s="72"/>
-    </row>
-    <row r="174" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A174" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E174" s="72"/>
-    </row>
-    <row r="175" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A175" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E175" s="72"/>
-    </row>
-    <row r="176" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A176" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E176" s="72"/>
-    </row>
-    <row r="177" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A177" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D177" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E177" s="72"/>
-    </row>
-    <row r="178" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A178" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D178" s="69">
-        <v>46387</v>
-      </c>
-      <c r="E178" s="72"/>
-    </row>
-    <row r="179" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="69">
-        <v>46387</v>
+        <v>46319</v>
       </c>
       <c r="E179" s="72"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179"/>
-      <c r="K179"/>
-      <c r="L179"/>
-      <c r="M179"/>
-      <c r="N179"/>
-      <c r="O179"/>
-      <c r="P179"/>
-      <c r="Q179"/>
-      <c r="R179"/>
-      <c r="S179"/>
-      <c r="T179"/>
-      <c r="U179"/>
-      <c r="V179"/>
-      <c r="W179"/>
-      <c r="X179"/>
-      <c r="Y179"/>
-      <c r="Z179"/>
-      <c r="AA179"/>
-      <c r="AB179"/>
-      <c r="AC179"/>
-      <c r="AD179"/>
-      <c r="AE179"/>
-      <c r="AF179"/>
-      <c r="AG179"/>
-      <c r="AH179"/>
-      <c r="AI179"/>
-      <c r="AJ179"/>
-      <c r="AK179"/>
-      <c r="AL179"/>
-      <c r="AM179"/>
-      <c r="AN179"/>
-      <c r="AO179"/>
-      <c r="AP179"/>
-      <c r="AQ179"/>
-      <c r="AR179"/>
-      <c r="AS179"/>
-      <c r="AT179"/>
-      <c r="AU179"/>
-      <c r="AV179"/>
-      <c r="AW179"/>
-      <c r="AX179"/>
-      <c r="AY179"/>
-      <c r="AZ179"/>
-      <c r="BA179"/>
-      <c r="BB179"/>
-      <c r="BC179"/>
-      <c r="BD179"/>
-      <c r="BE179"/>
-      <c r="BF179"/>
-      <c r="BG179"/>
-      <c r="BH179"/>
-      <c r="BI179"/>
-      <c r="BJ179"/>
-      <c r="BK179"/>
-      <c r="BL179"/>
-      <c r="BM179"/>
-      <c r="BN179"/>
-      <c r="BO179"/>
-      <c r="BP179"/>
-      <c r="BQ179"/>
-      <c r="BR179"/>
-      <c r="BS179"/>
-      <c r="BT179"/>
-      <c r="BU179"/>
-      <c r="BV179"/>
-      <c r="BW179"/>
-      <c r="BX179"/>
-      <c r="BY179"/>
-      <c r="BZ179"/>
-      <c r="CA179"/>
-      <c r="CB179"/>
-      <c r="CC179"/>
-      <c r="CD179"/>
-      <c r="CE179"/>
-      <c r="CF179"/>
-      <c r="CG179"/>
-      <c r="CH179"/>
-      <c r="CI179"/>
-      <c r="CJ179"/>
-      <c r="CK179"/>
-      <c r="CL179"/>
-      <c r="CM179"/>
-      <c r="CN179"/>
-      <c r="CO179"/>
-      <c r="CP179"/>
-      <c r="CQ179"/>
-      <c r="CR179"/>
-      <c r="CS179"/>
-      <c r="CT179"/>
-      <c r="CU179"/>
-      <c r="CV179"/>
-      <c r="CW179"/>
-      <c r="CX179"/>
-      <c r="CY179"/>
-      <c r="CZ179"/>
-      <c r="DA179"/>
-      <c r="DB179"/>
-      <c r="DC179"/>
-      <c r="DD179"/>
-      <c r="DE179"/>
-      <c r="DF179"/>
-      <c r="DG179"/>
-      <c r="DH179"/>
-      <c r="DI179"/>
-      <c r="DJ179"/>
-      <c r="DK179"/>
-      <c r="DL179"/>
-      <c r="DM179"/>
-      <c r="DN179"/>
-      <c r="DO179"/>
-      <c r="DP179"/>
-      <c r="DQ179"/>
-      <c r="DR179"/>
-    </row>
-    <row r="180" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A180" s="61" t="s">
-        <v>17</v>
+    </row>
+    <row r="180" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A180" s="60" t="s">
+        <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D180" s="69">
-        <v>46389</v>
+        <v>46320</v>
       </c>
       <c r="E180" s="72"/>
     </row>
-    <row r="181" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A181" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="181" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A181" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="69">
-        <v>46477</v>
+        <v>46328</v>
       </c>
       <c r="E181" s="72"/>
     </row>
-    <row r="182" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A182" s="60" t="s">
-        <v>192</v>
+    <row r="182" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A182" s="61" t="s">
+        <v>194</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D182" s="69">
-        <v>46487</v>
+        <v>46329</v>
       </c>
       <c r="E182" s="72"/>
     </row>
-    <row r="183" spans="1:122" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A183" s="60" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="69">
+        <v>46358</v>
+      </c>
+      <c r="E183" s="72"/>
+    </row>
+    <row r="184" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A184" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D184" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E184" s="72"/>
+    </row>
+    <row r="185" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A185" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E185" s="72"/>
+    </row>
+    <row r="186" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A186" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E186" s="72"/>
+    </row>
+    <row r="187" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A187" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E187" s="72"/>
+    </row>
+    <row r="188" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A188" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E188" s="72"/>
+    </row>
+    <row r="189" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A189" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E189" s="72"/>
+    </row>
+    <row r="190" spans="1:122" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="69">
+        <v>46387</v>
+      </c>
+      <c r="E190" s="72"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190"/>
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+      <c r="Y190"/>
+      <c r="Z190"/>
+      <c r="AA190"/>
+      <c r="AB190"/>
+      <c r="AC190"/>
+      <c r="AD190"/>
+      <c r="AE190"/>
+      <c r="AF190"/>
+      <c r="AG190"/>
+      <c r="AH190"/>
+      <c r="AI190"/>
+      <c r="AJ190"/>
+      <c r="AK190"/>
+      <c r="AL190"/>
+      <c r="AM190"/>
+      <c r="AN190"/>
+      <c r="AO190"/>
+      <c r="AP190"/>
+      <c r="AQ190"/>
+      <c r="AR190"/>
+      <c r="AS190"/>
+      <c r="AT190"/>
+      <c r="AU190"/>
+      <c r="AV190"/>
+      <c r="AW190"/>
+      <c r="AX190"/>
+      <c r="AY190"/>
+      <c r="AZ190"/>
+      <c r="BA190"/>
+      <c r="BB190"/>
+      <c r="BC190"/>
+      <c r="BD190"/>
+      <c r="BE190"/>
+      <c r="BF190"/>
+      <c r="BG190"/>
+      <c r="BH190"/>
+      <c r="BI190"/>
+      <c r="BJ190"/>
+      <c r="BK190"/>
+      <c r="BL190"/>
+      <c r="BM190"/>
+      <c r="BN190"/>
+      <c r="BO190"/>
+      <c r="BP190"/>
+      <c r="BQ190"/>
+      <c r="BR190"/>
+      <c r="BS190"/>
+      <c r="BT190"/>
+      <c r="BU190"/>
+      <c r="BV190"/>
+      <c r="BW190"/>
+      <c r="BX190"/>
+      <c r="BY190"/>
+      <c r="BZ190"/>
+      <c r="CA190"/>
+      <c r="CB190"/>
+      <c r="CC190"/>
+      <c r="CD190"/>
+      <c r="CE190"/>
+      <c r="CF190"/>
+      <c r="CG190"/>
+      <c r="CH190"/>
+      <c r="CI190"/>
+      <c r="CJ190"/>
+      <c r="CK190"/>
+      <c r="CL190"/>
+      <c r="CM190"/>
+      <c r="CN190"/>
+      <c r="CO190"/>
+      <c r="CP190"/>
+      <c r="CQ190"/>
+      <c r="CR190"/>
+      <c r="CS190"/>
+      <c r="CT190"/>
+      <c r="CU190"/>
+      <c r="CV190"/>
+      <c r="CW190"/>
+      <c r="CX190"/>
+      <c r="CY190"/>
+      <c r="CZ190"/>
+      <c r="DA190"/>
+      <c r="DB190"/>
+      <c r="DC190"/>
+      <c r="DD190"/>
+      <c r="DE190"/>
+      <c r="DF190"/>
+      <c r="DG190"/>
+      <c r="DH190"/>
+      <c r="DI190"/>
+      <c r="DJ190"/>
+      <c r="DK190"/>
+      <c r="DL190"/>
+      <c r="DM190"/>
+      <c r="DN190"/>
+      <c r="DO190"/>
+      <c r="DP190"/>
+      <c r="DQ190"/>
+      <c r="DR190"/>
+    </row>
+    <row r="191" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A191" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="69">
+        <v>46389</v>
+      </c>
+      <c r="E191" s="72"/>
+    </row>
+    <row r="192" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A192" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="69">
+        <v>46431</v>
+      </c>
+      <c r="E192" s="72"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="69">
+        <v>46446</v>
+      </c>
+      <c r="E193" s="72"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="69">
+        <v>46446</v>
+      </c>
+      <c r="E194" s="72"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="69">
+        <v>46446</v>
+      </c>
+      <c r="E195" s="72"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="69">
+        <v>46477</v>
+      </c>
+      <c r="E196" s="72"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="69">
+        <v>46477</v>
+      </c>
+      <c r="E197" s="72"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="69">
+        <v>46477</v>
+      </c>
+      <c r="E198" s="72"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="69">
+        <v>46477</v>
+      </c>
+      <c r="E199" s="72"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200" s="69">
+        <v>46487</v>
+      </c>
+      <c r="E200" s="72"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="69">
+        <v>46734</v>
+      </c>
+      <c r="E201" s="72"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="69">
         <v>47029</v>
       </c>
-      <c r="E183" s="72"/>
-    </row>
-    <row r="184" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A184" s="60"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="69"/>
-      <c r="E184" s="72"/>
-    </row>
-    <row r="185" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A185" s="60"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="69"/>
-      <c r="E185" s="72"/>
-    </row>
-    <row r="186" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A186" s="61"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="69"/>
-      <c r="E186" s="72"/>
-    </row>
-    <row r="187" spans="1:122" x14ac:dyDescent="0.35">
-      <c r="A187" s="60"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="69"/>
-      <c r="E187" s="72"/>
+      <c r="E202" s="72"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="60"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="69"/>
+      <c r="E203" s="72"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="60"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="72"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="61"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="69"/>
+      <c r="E205" s="72"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="60"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5384,13 +5913,13 @@
     <hyperlink ref="A86" r:id="rId27" xr:uid="{EF9E5405-0057-4913-BB66-8DADEA3ADAC1}"/>
     <hyperlink ref="A87" r:id="rId28" xr:uid="{77AD3351-401A-45BD-B406-81289E91E2B7}"/>
     <hyperlink ref="A93" r:id="rId29" xr:uid="{7488D608-8004-4897-996F-BC8BACB78819}"/>
-    <hyperlink ref="A156" r:id="rId30" xr:uid="{216B7BB1-9833-42F6-8BD6-FCD583005659}"/>
-    <hyperlink ref="A161" r:id="rId31" xr:uid="{FA25EFB8-9CF4-4906-BA52-DDB4946ED57F}"/>
-    <hyperlink ref="A179" r:id="rId32" xr:uid="{6DC17469-2AE4-486A-B2FB-692C612C938F}"/>
+    <hyperlink ref="A165" r:id="rId30" xr:uid="{216B7BB1-9833-42F6-8BD6-FCD583005659}"/>
+    <hyperlink ref="A171" r:id="rId31" xr:uid="{FA25EFB8-9CF4-4906-BA52-DDB4946ED57F}"/>
+    <hyperlink ref="A190" r:id="rId32" xr:uid="{6DC17469-2AE4-486A-B2FB-692C612C938F}"/>
     <hyperlink ref="A19" r:id="rId33" xr:uid="{0D893380-8851-499C-B099-36DE61DF32F5}"/>
     <hyperlink ref="A21" r:id="rId34" xr:uid="{87B26A19-7710-44FB-B821-04076D6AFBF0}"/>
     <hyperlink ref="A35" r:id="rId35" xr:uid="{E391FA3E-2D35-4729-830F-6D61CBEC0188}"/>
-    <hyperlink ref="A169" r:id="rId36" xr:uid="{2CACF691-BB8F-4886-AC93-9CE1A774C547}"/>
+    <hyperlink ref="A180" r:id="rId36" xr:uid="{2CACF691-BB8F-4886-AC93-9CE1A774C547}"/>
     <hyperlink ref="A13" r:id="rId37" xr:uid="{C4EC3C20-6E17-4496-AE8C-0CEF0E9A227E}"/>
     <hyperlink ref="A18" r:id="rId38" xr:uid="{DE7A9130-E078-4D30-B625-191B5DB108EB}"/>
     <hyperlink ref="A15" r:id="rId39" xr:uid="{BE9D8063-99E0-4594-B7AE-033FE54B7D57}"/>
@@ -5399,7 +5928,7 @@
     <hyperlink ref="A49" r:id="rId42" xr:uid="{AA26D797-BF58-4D70-80DD-349BD90AC78D}"/>
     <hyperlink ref="A47" r:id="rId43" display="http://10.0.10.4/link/A4CAE6F5-E38B-46FC-8A73-E356A04AAB61/show?object=2BAC4AEF-5562-4507-9D44-9918AC72C412&amp;objid=0-34910" xr:uid="{E1078946-D888-434A-9235-9A9ADAE1F358}"/>
     <hyperlink ref="A31" r:id="rId44" xr:uid="{13658346-E407-4C32-B12D-1EE442E6D4C1}"/>
-    <hyperlink ref="A172" r:id="rId45" xr:uid="{F8667B27-785F-4C86-8CBE-F02D36031873}"/>
+    <hyperlink ref="A183" r:id="rId45" xr:uid="{F8667B27-785F-4C86-8CBE-F02D36031873}"/>
     <hyperlink ref="A38" r:id="rId46" xr:uid="{3384F468-C50F-4198-92F5-4021B95195D6}"/>
     <hyperlink ref="A30" r:id="rId47" xr:uid="{F5DBA126-4925-4CE7-BF0A-F16F60CFE40E}"/>
     <hyperlink ref="A41" r:id="rId48" xr:uid="{4270CE8F-9570-4350-950E-4CDF1AF1DAE7}"/>
@@ -5409,7 +5938,7 @@
     <hyperlink ref="A112" r:id="rId52" xr:uid="{F9CF7289-D6A0-4780-87E7-3B78286AB288}"/>
     <hyperlink ref="A128" r:id="rId53" display="http://10.0.10.4/link/A4CAE6F5-E38B-46FC-8A73-E356A04AAB61/show?object=2BAC4AEF-5562-4507-9D44-9918AC72C412&amp;objid=0-34910" xr:uid="{9CFE415C-C17B-490C-8037-2532E86DE931}"/>
     <hyperlink ref="A55" r:id="rId54" xr:uid="{F9D9DEAA-53C8-468C-8630-D40E5EFE2D71}"/>
-    <hyperlink ref="A142" r:id="rId55" xr:uid="{78BB742D-73FF-403F-AD77-3A21BEA8FABD}"/>
+    <hyperlink ref="A144" r:id="rId55" xr:uid="{78BB742D-73FF-403F-AD77-3A21BEA8FABD}"/>
     <hyperlink ref="A115" r:id="rId56" xr:uid="{D4C47D54-2008-4878-8D6C-0A5103A83E1C}"/>
     <hyperlink ref="A36" r:id="rId57" xr:uid="{5C9626EA-E4A5-4D0E-B953-6B4B82F709E2}"/>
     <hyperlink ref="A37" r:id="rId58" xr:uid="{96654049-8A20-4712-8E12-BB280F6D48FA}"/>
@@ -5420,7 +5949,7 @@
     <hyperlink ref="A69" r:id="rId63" xr:uid="{36B5D324-9B53-4B8D-903E-0AFF9FF40F68}"/>
     <hyperlink ref="A54" r:id="rId64" xr:uid="{B0D7BE6C-2A85-487A-8233-DA7B4990ADD3}"/>
     <hyperlink ref="A64" r:id="rId65" xr:uid="{DC598FAA-2E8D-49B9-8196-77EFABE48390}"/>
-    <hyperlink ref="A182" r:id="rId66" xr:uid="{2A55D894-3782-4A93-BFF5-8BB45EF3BC96}"/>
+    <hyperlink ref="A200" r:id="rId66" xr:uid="{2A55D894-3782-4A93-BFF5-8BB45EF3BC96}"/>
     <hyperlink ref="A124" r:id="rId67" xr:uid="{703A2AC6-9444-4E57-ABFB-EE6ED7C9D085}"/>
     <hyperlink ref="A60" r:id="rId68" xr:uid="{542D71B6-F1E7-4AE6-B1FA-65A7E15CE5C1}"/>
     <hyperlink ref="A78" r:id="rId69" xr:uid="{F4B4F6EC-E5D9-4E63-B04A-BEB38A3599C0}"/>
@@ -5435,34 +5964,53 @@
     <hyperlink ref="A73" r:id="rId78" xr:uid="{53E5BB95-7747-494E-8B3F-CE8985BCCD8C}"/>
     <hyperlink ref="A77" r:id="rId79" xr:uid="{BD73F50C-8C2C-4097-AC56-2AC6085BA386}"/>
     <hyperlink ref="A81" r:id="rId80" xr:uid="{D8195D1C-89BE-48B0-ACCE-AC0D6F84221D}"/>
-    <hyperlink ref="A163" r:id="rId81" xr:uid="{3FADFDCB-7E5E-4791-B644-7806EF4F9053}"/>
+    <hyperlink ref="A174" r:id="rId81" xr:uid="{3FADFDCB-7E5E-4791-B644-7806EF4F9053}"/>
     <hyperlink ref="A95" r:id="rId82" xr:uid="{763050C7-E204-49E6-8F57-0D2A8A2AFEC5}"/>
     <hyperlink ref="A99" r:id="rId83" xr:uid="{A872B1D5-9CB2-4BF6-B70C-E785B0081A1C}"/>
     <hyperlink ref="A100" r:id="rId84" xr:uid="{13305418-280C-4A0F-8F52-F89EB87E7464}"/>
-    <hyperlink ref="A150" r:id="rId85" xr:uid="{02545752-74FC-4347-ABE9-9F3945601C86}"/>
+    <hyperlink ref="A158" r:id="rId85" xr:uid="{02545752-74FC-4347-ABE9-9F3945601C86}"/>
     <hyperlink ref="A127" r:id="rId86" xr:uid="{2BAC6AD7-0236-4814-99E0-82B25FD9E481}"/>
     <hyperlink ref="A122" r:id="rId87" xr:uid="{CF52E32D-755C-49FF-80CB-BB902CF11B42}"/>
-    <hyperlink ref="A168" r:id="rId88" xr:uid="{2A771FF4-F864-4AE6-9A3E-0D5C86951B7A}"/>
-    <hyperlink ref="A183" r:id="rId89" xr:uid="{2B519212-7208-4B3F-8C3B-6CB1677D1E24}"/>
+    <hyperlink ref="A179" r:id="rId88" xr:uid="{2A771FF4-F864-4AE6-9A3E-0D5C86951B7A}"/>
+    <hyperlink ref="A202" r:id="rId89" xr:uid="{2B519212-7208-4B3F-8C3B-6CB1677D1E24}"/>
     <hyperlink ref="A121" r:id="rId90" xr:uid="{86BB471B-F7BD-4FC7-B274-E6257B5430F7}"/>
     <hyperlink ref="A97" r:id="rId91" xr:uid="{7A586C77-7A05-4E91-83B8-6B5C0FD22752}"/>
-    <hyperlink ref="A178" r:id="rId92" xr:uid="{5B632E0F-4D33-40DC-8C56-9D8A3A64DDF4}"/>
-    <hyperlink ref="A175" r:id="rId93" xr:uid="{F9707FAA-2528-441B-A8E3-90694B09A0F9}"/>
-    <hyperlink ref="A177" r:id="rId94" xr:uid="{79837541-2DC6-4F63-AA38-276A6FC31426}"/>
-    <hyperlink ref="A159" r:id="rId95" xr:uid="{4B736B0C-7002-4E53-9963-F457726B67A4}"/>
-    <hyperlink ref="A158" r:id="rId96" xr:uid="{9FAC6E36-AE7B-4D72-9D2A-E6B4BAC03F19}"/>
+    <hyperlink ref="A189" r:id="rId92" xr:uid="{5B632E0F-4D33-40DC-8C56-9D8A3A64DDF4}"/>
+    <hyperlink ref="A186" r:id="rId93" xr:uid="{F9707FAA-2528-441B-A8E3-90694B09A0F9}"/>
+    <hyperlink ref="A188" r:id="rId94" xr:uid="{79837541-2DC6-4F63-AA38-276A6FC31426}"/>
+    <hyperlink ref="A168" r:id="rId95" xr:uid="{4B736B0C-7002-4E53-9963-F457726B67A4}"/>
+    <hyperlink ref="A167" r:id="rId96" xr:uid="{9FAC6E36-AE7B-4D72-9D2A-E6B4BAC03F19}"/>
     <hyperlink ref="A131" r:id="rId97" xr:uid="{4E3A922C-5FA1-437C-A138-E27A0AB81A85}"/>
-    <hyperlink ref="A140" r:id="rId98" xr:uid="{24D5EE0D-E898-40D1-BACB-35BC01593C2A}"/>
-    <hyperlink ref="A147" r:id="rId99" xr:uid="{5D4C087D-6199-48E3-B933-FA81772E4EA0}"/>
-    <hyperlink ref="A181" r:id="rId100" xr:uid="{74C92563-22E4-4585-82BB-A4ACBA191AF2}"/>
-    <hyperlink ref="A157" r:id="rId101" xr:uid="{142C2334-40BB-4EED-8EFB-849EC5A71EBA}"/>
-    <hyperlink ref="A160" r:id="rId102" xr:uid="{3D499344-5F60-42EA-B73C-EA71BC7797E3}"/>
-    <hyperlink ref="A138" r:id="rId103" xr:uid="{4A942445-8164-4D10-AD50-A2BFCB3725D6}"/>
-    <hyperlink ref="A137" r:id="rId104" xr:uid="{9E3E3393-2CDD-49D9-B3C7-01CBDDF04149}"/>
-    <hyperlink ref="A139" r:id="rId105" xr:uid="{F53F5054-6B7D-4981-B0E6-406539CB1C88}"/>
+    <hyperlink ref="A142" r:id="rId98" xr:uid="{24D5EE0D-E898-40D1-BACB-35BC01593C2A}"/>
+    <hyperlink ref="A152" r:id="rId99" xr:uid="{5D4C087D-6199-48E3-B933-FA81772E4EA0}"/>
+    <hyperlink ref="A199" r:id="rId100" xr:uid="{74C92563-22E4-4585-82BB-A4ACBA191AF2}"/>
+    <hyperlink ref="A166" r:id="rId101" xr:uid="{142C2334-40BB-4EED-8EFB-849EC5A71EBA}"/>
+    <hyperlink ref="A170" r:id="rId102" xr:uid="{3D499344-5F60-42EA-B73C-EA71BC7797E3}"/>
+    <hyperlink ref="A140" r:id="rId103" xr:uid="{4A942445-8164-4D10-AD50-A2BFCB3725D6}"/>
+    <hyperlink ref="A139" r:id="rId104" xr:uid="{9E3E3393-2CDD-49D9-B3C7-01CBDDF04149}"/>
+    <hyperlink ref="A141" r:id="rId105" xr:uid="{F53F5054-6B7D-4981-B0E6-406539CB1C88}"/>
+    <hyperlink ref="A172" r:id="rId106" xr:uid="{C6585221-D8F3-4B38-8CE5-B7D2DE2FDF27}"/>
+    <hyperlink ref="A159" r:id="rId107" xr:uid="{8E851C01-4764-41D0-B6F2-092036E89DBF}"/>
+    <hyperlink ref="A137" r:id="rId108" xr:uid="{12083912-21AB-4D87-981C-BB901742A261}"/>
+    <hyperlink ref="A138" r:id="rId109" xr:uid="{BC3D3828-0793-4DF1-A01A-4A42A3033F3B}"/>
+    <hyperlink ref="A145" r:id="rId110" xr:uid="{EB630B68-A6EA-46CE-9B37-4C34478EF465}"/>
+    <hyperlink ref="A155" r:id="rId111" xr:uid="{78691C27-23A4-4FDE-B693-281403DD7152}"/>
+    <hyperlink ref="A169" r:id="rId112" xr:uid="{FF316D06-0AB0-4F10-85B4-DF1AFF0DD3D9}"/>
+    <hyperlink ref="A154" r:id="rId113" xr:uid="{1153F28F-DBD0-4AEF-90B5-655B7D24443C}"/>
+    <hyperlink ref="A153" r:id="rId114" xr:uid="{3F1F7634-7DF5-4C5B-829D-33A31AF75316}"/>
+    <hyperlink ref="A196" r:id="rId115" xr:uid="{75903898-0E13-4C7C-8E7C-02AF01CD4774}"/>
+    <hyperlink ref="A146" r:id="rId116" xr:uid="{4AAF67E3-2303-4CB1-B268-0FE244686BC5}"/>
+    <hyperlink ref="A147" r:id="rId117" xr:uid="{9B177E28-E138-448F-BF89-33C353A5AC5D}"/>
+    <hyperlink ref="A201" r:id="rId118" xr:uid="{F070046C-2401-45FD-BC1D-0EB43BCCD14E}"/>
+    <hyperlink ref="A192" r:id="rId119" xr:uid="{A6240806-B511-43EC-A523-71EB8887FD96}"/>
+    <hyperlink ref="A195" r:id="rId120" xr:uid="{3530E77E-6DB0-4DA2-87BD-EAEA77286610}"/>
+    <hyperlink ref="A198" r:id="rId121" xr:uid="{6C584613-3BEA-4F41-8AEF-17BC2E14D5F4}"/>
+    <hyperlink ref="A197" r:id="rId122" xr:uid="{47C3B578-51D3-4015-83C0-809514069393}"/>
+    <hyperlink ref="A193" r:id="rId123" xr:uid="{58E76FBD-DAF9-4B84-A120-D63881B9A80E}"/>
+    <hyperlink ref="A194" r:id="rId124" xr:uid="{C8CB47ED-B93B-4803-A818-99A13116B6B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId106"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId125"/>
 </worksheet>
 </file>
 
@@ -5474,18 +6022,18 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -5515,7 +6063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
@@ -5533,7 +6081,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
@@ -5551,7 +6099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
@@ -5564,7 +6112,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>63</v>
       </c>
@@ -5578,7 +6126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -5592,7 +6140,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -5606,7 +6154,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>82</v>
       </c>
@@ -5620,7 +6168,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +6182,7 @@
         <v>45454</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>78</v>
       </c>
@@ -5648,7 +6196,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
@@ -5663,7 +6211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
@@ -5677,7 +6225,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
@@ -5691,7 +6239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -5703,7 +6251,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>63</v>
       </c>
@@ -5717,7 +6265,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +6279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
@@ -5745,7 +6293,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
@@ -5757,7 +6305,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>89</v>
       </c>
@@ -5771,7 +6319,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>76</v>
       </c>
@@ -5785,7 +6333,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>7</v>
       </c>
@@ -5797,7 +6345,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +6359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>23</v>
       </c>
@@ -5825,7 +6373,7 @@
         <v>45549</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>17</v>
       </c>
@@ -5837,7 +6385,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>7</v>
       </c>
@@ -5849,7 +6397,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>63</v>
       </c>
@@ -5863,7 +6411,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>5</v>
       </c>
@@ -5875,7 +6423,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>89</v>
       </c>
@@ -5889,7 +6437,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>9</v>
       </c>
@@ -5901,7 +6449,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>9</v>
       </c>
@@ -5913,7 +6461,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>34</v>
       </c>
@@ -5925,7 +6473,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>25</v>
       </c>
@@ -5939,7 +6487,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>108</v>
       </c>
@@ -5951,7 +6499,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>109</v>
       </c>
@@ -5963,7 +6511,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>9</v>
       </c>
@@ -5978,7 +6526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>25</v>
       </c>
@@ -5992,7 +6540,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>7</v>
       </c>
@@ -6006,7 +6554,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>43</v>
       </c>
@@ -6020,7 +6568,7 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>38</v>
       </c>
@@ -6034,7 +6582,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>5</v>
       </c>
@@ -6046,7 +6594,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>103</v>
       </c>
@@ -6060,7 +6608,7 @@
         <v>45619</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>95</v>
       </c>
@@ -6072,7 +6620,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>33</v>
       </c>
@@ -6084,7 +6632,7 @@
       </c>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>3</v>
       </c>
@@ -6104,7 +6652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>15</v>
       </c>
@@ -6118,7 +6666,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>7</v>
       </c>
@@ -6130,7 +6678,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>25</v>
       </c>
@@ -6147,7 +6695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -6159,7 +6707,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -6173,7 +6721,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -6187,7 +6735,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -6199,7 +6747,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -6211,7 +6759,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>7</v>
       </c>
@@ -6228,7 +6776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -6240,7 +6788,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
@@ -6252,7 +6800,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>108</v>
       </c>
@@ -6264,7 +6812,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>109</v>
       </c>
@@ -6276,7 +6824,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -6288,7 +6836,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -6302,7 +6850,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>3</v>
       </c>
@@ -6319,7 +6867,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -6333,7 +6881,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -6345,7 +6893,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -6359,7 +6907,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -6371,7 +6919,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -6385,7 +6933,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -6399,7 +6947,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -6413,7 +6961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>107</v>
       </c>
@@ -6425,7 +6973,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6987,7 @@
         <v>45764</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6453,7 +7001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -6467,7 +7015,7 @@
         <v>45780</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -6479,7 +7027,7 @@
         <v>45780</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
@@ -6493,7 +7041,7 @@
         <v>45803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -6505,7 +7053,7 @@
         <v>45816</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>48</v>
       </c>
@@ -6519,7 +7067,7 @@
         <v>45871</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>
@@ -6531,7 +7079,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
@@ -6543,7 +7091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +7105,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +7119,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -6585,7 +7133,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +7147,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>61</v>
       </c>
@@ -6613,7 +7161,7 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>3</v>
       </c>
@@ -6630,7 +7178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>127</v>
       </c>
@@ -6644,7 +7192,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -6656,7 +7204,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>38</v>
       </c>
@@ -6668,7 +7216,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
@@ -6680,7 +7228,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -6692,7 +7240,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
@@ -6704,7 +7252,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>42</v>
       </c>
@@ -6716,7 +7264,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>63</v>
       </c>
@@ -6728,7 +7276,7 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
@@ -6740,7 +7288,7 @@
         <v>45979</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -6752,7 +7300,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
@@ -6764,7 +7312,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>31</v>
       </c>
@@ -6776,7 +7324,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
@@ -6788,7 +7336,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -6800,7 +7348,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
@@ -6812,7 +7360,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>58</v>
       </c>
@@ -6824,7 +7372,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>59</v>
       </c>
@@ -6836,7 +7384,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>52</v>
       </c>
@@ -6848,7 +7396,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
@@ -6860,7 +7408,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>54</v>
       </c>
@@ -6872,7 +7420,7 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -6884,7 +7432,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>66</v>
       </c>
@@ -6896,7 +7444,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>39</v>
       </c>
@@ -6908,7 +7456,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
@@ -6920,7 +7468,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>65</v>
       </c>
@@ -6932,7 +7480,7 @@
         <v>45999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>49</v>
       </c>
@@ -6944,7 +7492,7 @@
         <v>46028</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>35</v>
       </c>
@@ -6956,7 +7504,7 @@
         <v>46035</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>50</v>
       </c>
@@ -6968,7 +7516,7 @@
         <v>46049</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>55</v>
       </c>
@@ -6980,7 +7528,7 @@
         <v>46109</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -6992,7 +7540,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>36</v>
       </c>
@@ -7004,7 +7552,7 @@
         <v>46165</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>30</v>
       </c>
@@ -7016,7 +7564,7 @@
         <v>46167</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
@@ -7028,7 +7576,7 @@
         <v>46167</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>63</v>
       </c>
@@ -7042,7 +7590,7 @@
         <v>46194</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>103</v>
       </c>
@@ -7054,7 +7602,7 @@
         <v>46198</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -7068,7 +7616,7 @@
         <v>46220</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
@@ -7080,7 +7628,7 @@
         <v>46230</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>108</v>
       </c>
@@ -7092,7 +7640,7 @@
         <v>46307</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>107</v>
       </c>
@@ -7104,7 +7652,7 @@
         <v>46328</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -7118,7 +7666,7 @@
         <v>46387</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
